--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>55780</v>
+        <v>525780</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Tundra Grey</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>44.83</v>
+        <v>12.5</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1291</v>
+        <v>700</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1321</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,899 +1517,372 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>55781</v>
+        <v>525781</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Tundra Grey</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>43.59</v>
+        <v>12.5</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1255</v>
+        <v>700</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1285</v>
+        <v>730</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n">
-        <v>55782</v>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F13" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>178</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>44.08</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>1270</v>
-      </c>
-      <c r="L13" s="16" t="n">
-        <v>1300</v>
+      <c r="B13" s="18" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="16">
+        <f>K13+30</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>56102</v>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>170</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>1212</v>
-      </c>
-      <c r="L14" s="16" t="n">
-        <v>1242</v>
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="10" t="n"/>
+      <c r="L14" s="16">
+        <f>K14+30</f>
+        <v/>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>55269</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>210</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>1125</v>
-      </c>
-      <c r="L15" s="16" t="n">
-        <v>1155</v>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="10" t="n"/>
+      <c r="L15" s="16">
+        <f>K15+30</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>55290</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>880</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>40.93</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1179</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>1209</v>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="10" t="n"/>
+      <c r="L16" s="16">
+        <f>K16+30</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>54608</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>840</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>1125</v>
-      </c>
-      <c r="L17" s="16" t="n">
-        <v>1155</v>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="16">
+        <f>K17+30</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>55249</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>15,25</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>840</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1125</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>1155</v>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="16">
+        <f>K18+30</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>56168</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>5196</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L19" s="16" t="n">
-        <v>1277</v>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="9" t="n"/>
+      <c r="K19" s="10" t="n"/>
+      <c r="L19" s="16">
+        <f>K19+30</f>
+        <v/>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>56174</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>5196</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <v>1277</v>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="10" t="n"/>
+      <c r="L20" s="16">
+        <f>K20+30</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>56189</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>5196</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L21" s="16" t="n">
-        <v>1277</v>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="16">
+        <f>K21+30</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
-        <v>56191</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>5196</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>1247</v>
-      </c>
-      <c r="L22" s="16" t="n">
-        <v>1277</v>
+      <c r="B22" s="18" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="16">
+        <f>K22+30</f>
+        <v/>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>56197</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L23" s="16" t="n">
-        <v>1150</v>
+      <c r="B23" s="18" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="16">
+        <f>K23+30</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
-        <v>56198</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L24" s="16" t="n">
-        <v>1150</v>
+      <c r="B24" s="18" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="16">
+        <f>K24+30</f>
+        <v/>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n">
-        <v>56199</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>1150</v>
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="16">
+        <f>K25+30</f>
+        <v/>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>56273</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K26" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L26" s="16" t="n">
-        <v>1150</v>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="16">
+        <f>K26+30</f>
+        <v/>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>56274</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>1150</v>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="10" t="n"/>
+      <c r="L27" s="16">
+        <f>K27+30</f>
+        <v/>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n">
-        <v>56275</v>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G28" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H28" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I28" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J28" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K28" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L28" s="16" t="n">
-        <v>1150</v>
+      <c r="B28" s="18" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="10" t="n"/>
+      <c r="J28" s="9" t="n"/>
+      <c r="K28" s="10" t="n"/>
+      <c r="L28" s="16">
+        <f>K28+30</f>
+        <v/>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n">
-        <v>56281</v>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D29" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G29" s="11" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="H29" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I29" s="10" t="n">
-        <v>1128</v>
-      </c>
-      <c r="J29" s="9" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="K29" s="10" t="n">
-        <v>1120</v>
-      </c>
-      <c r="L29" s="16" t="n">
-        <v>1150</v>
+      <c r="B29" s="18" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="16">
+        <f>K29+30</f>
+        <v/>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>525780</v>
+        <v>56528</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Tundra Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>12.5</v>
+        <v>35.5</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>700</v>
+        <v>1022</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>730</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,790 +1517,1999 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>525781</v>
+        <v>56529</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Tundra Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>12.5</v>
+        <v>35.5</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>700</v>
+        <v>1022</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>730</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="11" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="10" t="n"/>
-      <c r="L13" s="16">
-        <f>K13+30</f>
-        <v/>
+      <c r="B13" s="18" t="n">
+        <v>56531</v>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L13" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="16">
-        <f>K14+30</f>
-        <v/>
+      <c r="B14" s="18" t="n">
+        <v>56533</v>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="16">
-        <f>K15+30</f>
-        <v/>
+      <c r="B15" s="18" t="n">
+        <v>56599</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="16">
-        <f>K16+30</f>
-        <v/>
+      <c r="B16" s="18" t="n">
+        <v>56600</v>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="16">
-        <f>K17+30</f>
-        <v/>
+      <c r="B17" s="18" t="n">
+        <v>56601</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L17" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="10" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="10" t="n"/>
-      <c r="L18" s="16">
-        <f>K18+30</f>
-        <v/>
+      <c r="B18" s="18" t="n">
+        <v>56602</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="10" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="10" t="n"/>
-      <c r="L19" s="16">
-        <f>K19+30</f>
-        <v/>
+      <c r="B19" s="18" t="n">
+        <v>56633</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="10" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="10" t="n"/>
-      <c r="L20" s="16">
-        <f>K20+30</f>
-        <v/>
+      <c r="B20" s="18" t="n">
+        <v>56748</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="10" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="16">
-        <f>K21+30</f>
-        <v/>
+      <c r="B21" s="18" t="n">
+        <v>56749</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L21" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="16">
-        <f>K22+30</f>
-        <v/>
+      <c r="B22" s="18" t="n">
+        <v>56751</v>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="10" t="n"/>
-      <c r="L23" s="16">
-        <f>K23+30</f>
-        <v/>
+      <c r="B23" s="18" t="n">
+        <v>56752</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L23" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="16">
-        <f>K24+30</f>
-        <v/>
+      <c r="B24" s="18" t="n">
+        <v>56753</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L24" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="10" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="10" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="10" t="n"/>
-      <c r="L25" s="16">
-        <f>K25+30</f>
-        <v/>
+      <c r="B25" s="18" t="n">
+        <v>56754</v>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>170</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L25" s="16" t="n">
+        <v>1052</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="10" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="10" t="n"/>
-      <c r="L26" s="16">
-        <f>K26+30</f>
-        <v/>
+      <c r="B26" s="18" t="n">
+        <v>56212</v>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L26" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="10" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="10" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="10" t="n"/>
-      <c r="L27" s="16">
-        <f>K27+30</f>
-        <v/>
+      <c r="B27" s="18" t="n">
+        <v>56213</v>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L27" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n"/>
-      <c r="C28" s="10" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
-      <c r="I28" s="10" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="10" t="n"/>
-      <c r="L28" s="16">
-        <f>K28+30</f>
-        <v/>
+      <c r="B28" s="18" t="n">
+        <v>56216</v>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G28" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L28" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="n"/>
-      <c r="I29" s="10" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="10" t="n"/>
-      <c r="L29" s="16">
-        <f>K29+30</f>
-        <v/>
+      <c r="B29" s="18" t="n">
+        <v>56219</v>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G29" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L29" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="18" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="11" t="n"/>
-      <c r="H30" s="11" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="10" t="n"/>
-      <c r="L30" s="16">
-        <f>K30+30</f>
-        <v/>
+      <c r="B30" s="18" t="n">
+        <v>56221</v>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D30" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F30" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G30" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H30" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L30" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="14" t="n"/>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="11" t="n"/>
-      <c r="H31" s="11" t="n"/>
-      <c r="I31" s="10" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="10" t="n"/>
-      <c r="L31" s="16">
-        <f>K31+30</f>
-        <v/>
+      <c r="B31" s="18" t="n">
+        <v>56411</v>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L31" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="18" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="14" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="11" t="n"/>
-      <c r="H32" s="11" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="10" t="n"/>
-      <c r="L32" s="16">
-        <f>K32+30</f>
-        <v/>
+      <c r="B32" s="18" t="n">
+        <v>56413</v>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D32" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <v>1125</v>
+      </c>
+      <c r="L32" s="16" t="n">
+        <v>1155</v>
       </c>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="18" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="14" t="n"/>
-      <c r="E33" s="10" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="11" t="n"/>
-      <c r="H33" s="11" t="n"/>
-      <c r="I33" s="10" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="10" t="n"/>
-      <c r="L33" s="16">
-        <f>K33+30</f>
-        <v/>
+      <c r="B33" s="18" t="n">
+        <v>56418</v>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L33" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A34" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="18" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="14" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="11" t="n"/>
-      <c r="H34" s="11" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="10" t="n"/>
-      <c r="L34" s="16">
-        <f>K34+30</f>
-        <v/>
+      <c r="B34" s="18" t="n">
+        <v>56419</v>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I34" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L34" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A35" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="18" t="n"/>
-      <c r="C35" s="10" t="n"/>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="10" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="11" t="n"/>
-      <c r="H35" s="11" t="n"/>
-      <c r="I35" s="10" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="10" t="n"/>
-      <c r="L35" s="16">
-        <f>K35+30</f>
-        <v/>
+      <c r="B35" s="18" t="n">
+        <v>56420</v>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I35" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L35" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A36" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="18" t="n"/>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="14" t="n"/>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="11" t="n"/>
-      <c r="H36" s="11" t="n"/>
-      <c r="I36" s="10" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="10" t="n"/>
-      <c r="L36" s="16">
-        <f>K36+30</f>
-        <v/>
+      <c r="B36" s="18" t="n">
+        <v>56424</v>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D36" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E36" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I36" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L36" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A37" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="18" t="n"/>
-      <c r="C37" s="10" t="n"/>
-      <c r="D37" s="14" t="n"/>
-      <c r="E37" s="10" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="11" t="n"/>
-      <c r="H37" s="11" t="n"/>
-      <c r="I37" s="10" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="10" t="n"/>
-      <c r="L37" s="16">
-        <f>K37+30</f>
-        <v/>
+      <c r="B37" s="18" t="n">
+        <v>56425</v>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L37" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="14" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="11" t="n"/>
-      <c r="H38" s="11" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="10" t="n"/>
-      <c r="L38" s="16">
-        <f>K38+30</f>
-        <v/>
+      <c r="B38" s="18" t="n">
+        <v>56447</v>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E38" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L38" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="14" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="11" t="n"/>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="10" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="10" t="n"/>
-      <c r="L39" s="16">
-        <f>K39+30</f>
-        <v/>
+      <c r="B39" s="18" t="n">
+        <v>56510</v>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L39" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="11" t="n"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="10" t="n"/>
-      <c r="L40" s="16">
-        <f>K40+30</f>
-        <v/>
+      <c r="B40" s="18" t="n">
+        <v>56516</v>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E40" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G40" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I40" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L40" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="14" t="n"/>
-      <c r="E41" s="10" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="11" t="n"/>
-      <c r="H41" s="11" t="n"/>
-      <c r="I41" s="10" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="10" t="n"/>
-      <c r="L41" s="16">
-        <f>K41+30</f>
-        <v/>
+      <c r="B41" s="18" t="n">
+        <v>56520</v>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G41" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L41" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A42" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="14" t="n"/>
-      <c r="E42" s="10" t="n"/>
-      <c r="F42" s="13" t="n"/>
-      <c r="G42" s="11" t="n"/>
-      <c r="H42" s="11" t="n"/>
-      <c r="I42" s="10" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="10" t="n"/>
-      <c r="L42" s="16">
-        <f>K42+30</f>
-        <v/>
+      <c r="B42" s="18" t="n">
+        <v>56522</v>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E42" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G42" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H42" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I42" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J42" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L42" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="43" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A43" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="14" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="13" t="n"/>
-      <c r="G43" s="11" t="n"/>
-      <c r="H43" s="11" t="n"/>
-      <c r="I43" s="10" t="n"/>
-      <c r="J43" s="9" t="n"/>
-      <c r="K43" s="10" t="n"/>
-      <c r="L43" s="16">
-        <f>K43+30</f>
-        <v/>
+      <c r="B43" s="18" t="n">
+        <v>56523</v>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G43" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H43" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I43" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J43" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K43" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L43" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="44" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A44" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="14" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="11" t="n"/>
-      <c r="H44" s="11" t="n"/>
-      <c r="I44" s="10" t="n"/>
-      <c r="J44" s="9" t="n"/>
-      <c r="K44" s="10" t="n"/>
-      <c r="L44" s="16">
-        <f>K44+30</f>
-        <v/>
+      <c r="B44" s="18" t="n">
+        <v>56233</v>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D44" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E44" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G44" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H44" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I44" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K44" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L44" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="45" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A45" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="18" t="n"/>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="14" t="n"/>
-      <c r="E45" s="10" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="11" t="n"/>
-      <c r="H45" s="11" t="n"/>
-      <c r="I45" s="10" t="n"/>
-      <c r="J45" s="9" t="n"/>
-      <c r="K45" s="10" t="n"/>
-      <c r="L45" s="16">
-        <f>K45+30</f>
-        <v/>
+      <c r="B45" s="18" t="n">
+        <v>56325</v>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D45" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G45" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H45" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I45" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K45" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L45" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="46" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A46" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="18" t="n"/>
-      <c r="C46" s="10" t="n"/>
-      <c r="D46" s="14" t="n"/>
-      <c r="E46" s="10" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="11" t="n"/>
-      <c r="H46" s="11" t="n"/>
-      <c r="I46" s="10" t="n"/>
-      <c r="J46" s="9" t="n"/>
-      <c r="K46" s="10" t="n"/>
-      <c r="L46" s="16">
-        <f>K46+30</f>
-        <v/>
+      <c r="B46" s="18" t="n">
+        <v>56327</v>
+      </c>
+      <c r="C46" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D46" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E46" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F46" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G46" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H46" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I46" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K46" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L46" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="47" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A47" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="18" t="n"/>
-      <c r="C47" s="10" t="n"/>
-      <c r="D47" s="14" t="n"/>
-      <c r="E47" s="10" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="11" t="n"/>
-      <c r="H47" s="11" t="n"/>
-      <c r="I47" s="10" t="n"/>
-      <c r="J47" s="9" t="n"/>
-      <c r="K47" s="10" t="n"/>
-      <c r="L47" s="16">
-        <f>K47+30</f>
-        <v/>
+      <c r="B47" s="18" t="n">
+        <v>56330</v>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D47" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G47" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H47" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I47" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K47" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L47" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="48" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A48" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="n"/>
-      <c r="C48" s="10" t="n"/>
-      <c r="D48" s="14" t="n"/>
-      <c r="E48" s="10" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="11" t="n"/>
-      <c r="H48" s="11" t="n"/>
-      <c r="I48" s="10" t="n"/>
-      <c r="J48" s="9" t="n"/>
-      <c r="K48" s="10" t="n"/>
-      <c r="L48" s="16">
-        <f>K48+30</f>
-        <v/>
+      <c r="B48" s="18" t="n">
+        <v>56331</v>
+      </c>
+      <c r="C48" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D48" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E48" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F48" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G48" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H48" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I48" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K48" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L48" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="49" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A49" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="18" t="n"/>
-      <c r="C49" s="10" t="n"/>
-      <c r="D49" s="14" t="n"/>
-      <c r="E49" s="10" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="11" t="n"/>
-      <c r="H49" s="11" t="n"/>
-      <c r="I49" s="10" t="n"/>
-      <c r="J49" s="9" t="n"/>
-      <c r="K49" s="10" t="n"/>
-      <c r="L49" s="16">
-        <f>K49+30</f>
-        <v/>
+      <c r="B49" s="18" t="n">
+        <v>56334</v>
+      </c>
+      <c r="C49" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D49" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E49" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G49" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H49" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I49" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K49" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L49" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="50" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A50" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="18" t="n"/>
-      <c r="C50" s="10" t="n"/>
-      <c r="D50" s="14" t="n"/>
-      <c r="E50" s="10" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="11" t="n"/>
-      <c r="H50" s="11" t="n"/>
-      <c r="I50" s="10" t="n"/>
-      <c r="J50" s="9" t="n"/>
-      <c r="K50" s="10" t="n"/>
-      <c r="L50" s="16">
-        <f>K50+30</f>
-        <v/>
+      <c r="B50" s="18" t="n">
+        <v>56336</v>
+      </c>
+      <c r="C50" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D50" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E50" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F50" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G50" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H50" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I50" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K50" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L50" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="51" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A51" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="18" t="n"/>
-      <c r="C51" s="10" t="n"/>
-      <c r="D51" s="14" t="n"/>
-      <c r="E51" s="10" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="11" t="n"/>
-      <c r="H51" s="11" t="n"/>
-      <c r="I51" s="10" t="n"/>
-      <c r="J51" s="9" t="n"/>
-      <c r="K51" s="10" t="n"/>
-      <c r="L51" s="16">
-        <f>K51+30</f>
-        <v/>
+      <c r="B51" s="18" t="n">
+        <v>56339</v>
+      </c>
+      <c r="C51" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D51" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E51" s="10" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G51" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H51" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I51" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K51" s="10" t="n">
+        <v>1113</v>
+      </c>
+      <c r="L51" s="16" t="n">
+        <v>1143</v>
       </c>
     </row>
     <row r="52" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>56528</v>
+        <v>56326</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -1491,25 +1491,25 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>56529</v>
+        <v>56328</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -1541,25 +1541,25 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>56531</v>
+        <v>56329</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>56533</v>
+        <v>56332</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
@@ -1641,25 +1641,25 @@
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>56599</v>
+        <v>56333</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
@@ -1691,25 +1691,25 @@
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>56600</v>
+        <v>56335</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
@@ -1741,25 +1741,25 @@
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>56601</v>
+        <v>56338</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
@@ -1791,25 +1791,25 @@
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>56602</v>
+        <v>56344</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
@@ -1841,25 +1841,25 @@
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>56633</v>
+        <v>56346</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
@@ -1891,25 +1891,25 @@
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>56748</v>
+        <v>56347</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
@@ -1941,25 +1941,25 @@
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>56749</v>
+        <v>56348</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
@@ -1991,25 +1991,25 @@
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>56751</v>
+        <v>56560</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
@@ -2041,25 +2041,25 @@
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>56752</v>
+        <v>56563</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
@@ -2076,12 +2076,12 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F23" s="13" t="inlineStr">
@@ -2091,25 +2091,25 @@
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2117,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>56753</v>
+        <v>56564</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
@@ -2141,25 +2141,25 @@
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2167,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>56754</v>
+        <v>56565</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F25" s="13" t="inlineStr">
@@ -2191,25 +2191,25 @@
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>170</v>
+        <v>312</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>35.5</v>
+        <v>38.66</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>1022</v>
+        <v>1113</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>1052</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>56212</v>
+        <v>56566</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
@@ -2241,25 +2241,25 @@
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>56213</v>
+        <v>56567</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr">
@@ -2291,25 +2291,25 @@
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2317,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>56216</v>
+        <v>56568</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F28" s="13" t="inlineStr">
@@ -2341,25 +2341,25 @@
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I28" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K28" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2367,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>56219</v>
+        <v>56570</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F29" s="13" t="inlineStr">
@@ -2391,25 +2391,25 @@
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I29" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J29" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>56221</v>
+        <v>56571</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F30" s="13" t="inlineStr">
@@ -2441,25 +2441,25 @@
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I30" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J30" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K30" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>56411</v>
+        <v>56573</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F31" s="13" t="inlineStr">
@@ -2491,25 +2491,25 @@
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I31" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J31" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K31" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>56413</v>
+        <v>56574</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F32" s="13" t="inlineStr">
@@ -2541,25 +2541,25 @@
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I32" s="10" t="n">
-        <v>210</v>
+        <v>312</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>39.07</v>
+        <v>38.66</v>
       </c>
       <c r="K32" s="10" t="n">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="L32" s="16" t="n">
-        <v>1155</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>56418</v>
+        <v>56579</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F33" s="13" t="inlineStr">
@@ -2617,7 +2617,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>56419</v>
+        <v>56580</v>
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="D34" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E34" s="10" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F34" s="13" t="inlineStr">
@@ -2667,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="18" t="n">
-        <v>56420</v>
+        <v>56582</v>
       </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F35" s="13" t="inlineStr">
@@ -2717,7 +2717,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>56424</v>
+        <v>56767</v>
       </c>
       <c r="C36" s="10" t="inlineStr">
         <is>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="D36" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E36" s="10" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F36" s="13" t="inlineStr">
@@ -2741,25 +2741,25 @@
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H36" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I36" s="10" t="n">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="J36" s="9" t="n">
-        <v>38.66</v>
+        <v>39.07</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>1143</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2767,7 +2767,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>56425</v>
+        <v>56768</v>
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E37" s="10" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F37" s="13" t="inlineStr">
@@ -2791,725 +2791,291 @@
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H37" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I37" s="10" t="n">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>38.66</v>
+        <v>39.07</v>
       </c>
       <c r="K37" s="10" t="n">
-        <v>1113</v>
+        <v>1125</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>1143</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n">
-        <v>56447</v>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D38" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E38" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I38" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K38" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L38" s="16" t="n">
-        <v>1143</v>
+      <c r="B38" s="18" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="14" t="n"/>
+      <c r="E38" s="10" t="n"/>
+      <c r="F38" s="13" t="n"/>
+      <c r="G38" s="11" t="n"/>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="10" t="n"/>
+      <c r="L38" s="16">
+        <f>K38+30</f>
+        <v/>
       </c>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n">
-        <v>56510</v>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D39" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E39" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G39" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I39" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K39" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L39" s="16" t="n">
-        <v>1143</v>
+      <c r="B39" s="18" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="14" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="13" t="n"/>
+      <c r="G39" s="11" t="n"/>
+      <c r="H39" s="11" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="9" t="n"/>
+      <c r="K39" s="10" t="n"/>
+      <c r="L39" s="16">
+        <f>K39+30</f>
+        <v/>
       </c>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n">
-        <v>56516</v>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D40" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E40" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G40" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K40" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L40" s="16" t="n">
-        <v>1143</v>
+      <c r="B40" s="18" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="14" t="n"/>
+      <c r="E40" s="10" t="n"/>
+      <c r="F40" s="13" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="10" t="n"/>
+      <c r="J40" s="9" t="n"/>
+      <c r="K40" s="10" t="n"/>
+      <c r="L40" s="16">
+        <f>K40+30</f>
+        <v/>
       </c>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n">
-        <v>56520</v>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D41" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E41" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G41" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H41" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K41" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L41" s="16" t="n">
-        <v>1143</v>
+      <c r="B41" s="18" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="14" t="n"/>
+      <c r="E41" s="10" t="n"/>
+      <c r="F41" s="13" t="n"/>
+      <c r="G41" s="11" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="10" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="10" t="n"/>
+      <c r="L41" s="16">
+        <f>K41+30</f>
+        <v/>
       </c>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A42" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="n">
-        <v>56522</v>
-      </c>
-      <c r="C42" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D42" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E42" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G42" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H42" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I42" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J42" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K42" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L42" s="16" t="n">
-        <v>1143</v>
+      <c r="B42" s="18" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="14" t="n"/>
+      <c r="E42" s="10" t="n"/>
+      <c r="F42" s="13" t="n"/>
+      <c r="G42" s="11" t="n"/>
+      <c r="H42" s="11" t="n"/>
+      <c r="I42" s="10" t="n"/>
+      <c r="J42" s="9" t="n"/>
+      <c r="K42" s="10" t="n"/>
+      <c r="L42" s="16">
+        <f>K42+30</f>
+        <v/>
       </c>
     </row>
     <row r="43" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A43" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="n">
-        <v>56523</v>
-      </c>
-      <c r="C43" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D43" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E43" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F43" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G43" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H43" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I43" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J43" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K43" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L43" s="16" t="n">
-        <v>1143</v>
+      <c r="B43" s="18" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="14" t="n"/>
+      <c r="E43" s="10" t="n"/>
+      <c r="F43" s="13" t="n"/>
+      <c r="G43" s="11" t="n"/>
+      <c r="H43" s="11" t="n"/>
+      <c r="I43" s="10" t="n"/>
+      <c r="J43" s="9" t="n"/>
+      <c r="K43" s="10" t="n"/>
+      <c r="L43" s="16">
+        <f>K43+30</f>
+        <v/>
       </c>
     </row>
     <row r="44" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A44" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="n">
-        <v>56233</v>
-      </c>
-      <c r="C44" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D44" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E44" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G44" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H44" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I44" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J44" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K44" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L44" s="16" t="n">
-        <v>1143</v>
+      <c r="B44" s="18" t="n"/>
+      <c r="C44" s="10" t="n"/>
+      <c r="D44" s="14" t="n"/>
+      <c r="E44" s="10" t="n"/>
+      <c r="F44" s="13" t="n"/>
+      <c r="G44" s="11" t="n"/>
+      <c r="H44" s="11" t="n"/>
+      <c r="I44" s="10" t="n"/>
+      <c r="J44" s="9" t="n"/>
+      <c r="K44" s="10" t="n"/>
+      <c r="L44" s="16">
+        <f>K44+30</f>
+        <v/>
       </c>
     </row>
     <row r="45" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A45" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="B45" s="18" t="n">
-        <v>56325</v>
-      </c>
-      <c r="C45" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D45" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E45" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F45" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G45" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H45" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I45" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J45" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K45" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L45" s="16" t="n">
-        <v>1143</v>
+      <c r="B45" s="18" t="n"/>
+      <c r="C45" s="10" t="n"/>
+      <c r="D45" s="14" t="n"/>
+      <c r="E45" s="10" t="n"/>
+      <c r="F45" s="13" t="n"/>
+      <c r="G45" s="11" t="n"/>
+      <c r="H45" s="11" t="n"/>
+      <c r="I45" s="10" t="n"/>
+      <c r="J45" s="9" t="n"/>
+      <c r="K45" s="10" t="n"/>
+      <c r="L45" s="16">
+        <f>K45+30</f>
+        <v/>
       </c>
     </row>
     <row r="46" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A46" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="B46" s="18" t="n">
-        <v>56327</v>
-      </c>
-      <c r="C46" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D46" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E46" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G46" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H46" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I46" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J46" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K46" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L46" s="16" t="n">
-        <v>1143</v>
+      <c r="B46" s="18" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="14" t="n"/>
+      <c r="E46" s="10" t="n"/>
+      <c r="F46" s="13" t="n"/>
+      <c r="G46" s="11" t="n"/>
+      <c r="H46" s="11" t="n"/>
+      <c r="I46" s="10" t="n"/>
+      <c r="J46" s="9" t="n"/>
+      <c r="K46" s="10" t="n"/>
+      <c r="L46" s="16">
+        <f>K46+30</f>
+        <v/>
       </c>
     </row>
     <row r="47" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A47" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="B47" s="18" t="n">
-        <v>56330</v>
-      </c>
-      <c r="C47" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D47" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E47" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F47" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G47" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H47" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I47" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J47" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K47" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L47" s="16" t="n">
-        <v>1143</v>
+      <c r="B47" s="18" t="n"/>
+      <c r="C47" s="10" t="n"/>
+      <c r="D47" s="14" t="n"/>
+      <c r="E47" s="10" t="n"/>
+      <c r="F47" s="13" t="n"/>
+      <c r="G47" s="11" t="n"/>
+      <c r="H47" s="11" t="n"/>
+      <c r="I47" s="10" t="n"/>
+      <c r="J47" s="9" t="n"/>
+      <c r="K47" s="10" t="n"/>
+      <c r="L47" s="16">
+        <f>K47+30</f>
+        <v/>
       </c>
     </row>
     <row r="48" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A48" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="B48" s="18" t="n">
-        <v>56331</v>
-      </c>
-      <c r="C48" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D48" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E48" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G48" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H48" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I48" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J48" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K48" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L48" s="16" t="n">
-        <v>1143</v>
+      <c r="B48" s="18" t="n"/>
+      <c r="C48" s="10" t="n"/>
+      <c r="D48" s="14" t="n"/>
+      <c r="E48" s="10" t="n"/>
+      <c r="F48" s="13" t="n"/>
+      <c r="G48" s="11" t="n"/>
+      <c r="H48" s="11" t="n"/>
+      <c r="I48" s="10" t="n"/>
+      <c r="J48" s="9" t="n"/>
+      <c r="K48" s="10" t="n"/>
+      <c r="L48" s="16">
+        <f>K48+30</f>
+        <v/>
       </c>
     </row>
     <row r="49" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A49" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="B49" s="18" t="n">
-        <v>56334</v>
-      </c>
-      <c r="C49" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D49" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E49" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F49" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G49" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H49" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I49" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J49" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K49" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L49" s="16" t="n">
-        <v>1143</v>
+      <c r="B49" s="18" t="n"/>
+      <c r="C49" s="10" t="n"/>
+      <c r="D49" s="14" t="n"/>
+      <c r="E49" s="10" t="n"/>
+      <c r="F49" s="13" t="n"/>
+      <c r="G49" s="11" t="n"/>
+      <c r="H49" s="11" t="n"/>
+      <c r="I49" s="10" t="n"/>
+      <c r="J49" s="9" t="n"/>
+      <c r="K49" s="10" t="n"/>
+      <c r="L49" s="16">
+        <f>K49+30</f>
+        <v/>
       </c>
     </row>
     <row r="50" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A50" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="B50" s="18" t="n">
-        <v>56336</v>
-      </c>
-      <c r="C50" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D50" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E50" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G50" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H50" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I50" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J50" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K50" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L50" s="16" t="n">
-        <v>1143</v>
+      <c r="B50" s="18" t="n"/>
+      <c r="C50" s="10" t="n"/>
+      <c r="D50" s="14" t="n"/>
+      <c r="E50" s="10" t="n"/>
+      <c r="F50" s="13" t="n"/>
+      <c r="G50" s="11" t="n"/>
+      <c r="H50" s="11" t="n"/>
+      <c r="I50" s="10" t="n"/>
+      <c r="J50" s="9" t="n"/>
+      <c r="K50" s="10" t="n"/>
+      <c r="L50" s="16">
+        <f>K50+30</f>
+        <v/>
       </c>
     </row>
     <row r="51" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A51" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="B51" s="18" t="n">
-        <v>56339</v>
-      </c>
-      <c r="C51" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D51" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E51" s="10" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="F51" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G51" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H51" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I51" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J51" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K51" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L51" s="16" t="n">
-        <v>1143</v>
+      <c r="B51" s="18" t="n"/>
+      <c r="C51" s="10" t="n"/>
+      <c r="D51" s="14" t="n"/>
+      <c r="E51" s="10" t="n"/>
+      <c r="F51" s="13" t="n"/>
+      <c r="G51" s="11" t="n"/>
+      <c r="H51" s="11" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="9" t="n"/>
+      <c r="K51" s="10" t="n"/>
+      <c r="L51" s="16">
+        <f>K51+30</f>
+        <v/>
       </c>
     </row>
     <row r="52" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>56326</v>
+        <v>56406</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -1491,25 +1491,25 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>56328</v>
+        <v>56783</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -1541,25 +1541,25 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>56329</v>
+        <v>56784</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>56332</v>
+        <v>56797</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
@@ -1641,25 +1641,25 @@
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>56333</v>
+        <v>56800</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1676,12 +1676,12 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
@@ -1691,25 +1691,25 @@
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>56335</v>
+        <v>56802</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
@@ -1741,25 +1741,25 @@
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>56338</v>
+        <v>56803</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
@@ -1791,25 +1791,25 @@
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>56344</v>
+        <v>56804</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
@@ -1841,25 +1841,25 @@
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>56346</v>
+        <v>56806</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
@@ -1891,25 +1891,25 @@
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>56347</v>
+        <v>56807</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1926,12 +1926,12 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
@@ -1941,25 +1941,25 @@
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>56348</v>
+        <v>56810</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
@@ -1991,25 +1991,25 @@
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>56560</v>
+        <v>56812</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
@@ -2041,25 +2041,25 @@
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>56563</v>
+        <v>56816</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
@@ -2076,12 +2076,12 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F23" s="13" t="inlineStr">
@@ -2091,25 +2091,25 @@
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2117,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>56564</v>
+        <v>56825</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
@@ -2126,12 +2126,12 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
@@ -2141,25 +2141,25 @@
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2167,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>56565</v>
+        <v>56826</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F25" s="13" t="inlineStr">
@@ -2191,25 +2191,25 @@
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>56566</v>
+        <v>56833</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
@@ -2241,25 +2241,25 @@
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>56567</v>
+        <v>56847</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
@@ -2276,12 +2276,12 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr">
@@ -2291,25 +2291,25 @@
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2317,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>56568</v>
+        <v>56848</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F28" s="13" t="inlineStr">
@@ -2341,25 +2341,25 @@
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I28" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K28" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2367,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>56570</v>
+        <v>56849</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -2376,12 +2376,12 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F29" s="13" t="inlineStr">
@@ -2391,25 +2391,25 @@
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I29" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J29" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>56571</v>
+        <v>56876</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
@@ -2426,12 +2426,12 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F30" s="13" t="inlineStr">
@@ -2441,25 +2441,25 @@
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I30" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J30" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K30" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>56573</v>
+        <v>56878</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F31" s="13" t="inlineStr">
@@ -2491,25 +2491,25 @@
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I31" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J31" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K31" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>56574</v>
+        <v>56880</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
@@ -2526,12 +2526,12 @@
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F32" s="13" t="inlineStr">
@@ -2541,25 +2541,25 @@
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I32" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K32" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L32" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>56579</v>
+        <v>56881</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
@@ -2576,12 +2576,12 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F33" s="13" t="inlineStr">
@@ -2591,25 +2591,25 @@
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I33" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L33" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2617,7 +2617,7 @@
         <v>24</v>
       </c>
       <c r="B34" s="18" t="n">
-        <v>56580</v>
+        <v>56882</v>
       </c>
       <c r="C34" s="10" t="inlineStr">
         <is>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="D34" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E34" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F34" s="13" t="inlineStr">
@@ -2641,25 +2641,25 @@
       </c>
       <c r="G34" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H34" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I34" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J34" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K34" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L34" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2667,7 +2667,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="18" t="n">
-        <v>56582</v>
+        <v>56883</v>
       </c>
       <c r="C35" s="10" t="inlineStr">
         <is>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="D35" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E35" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F35" s="13" t="inlineStr">
@@ -2691,25 +2691,25 @@
       </c>
       <c r="G35" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H35" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I35" s="10" t="n">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="J35" s="9" t="n">
-        <v>38.66</v>
+        <v>33.42</v>
       </c>
       <c r="K35" s="10" t="n">
-        <v>1113</v>
+        <v>962</v>
       </c>
       <c r="L35" s="16" t="n">
-        <v>1143</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2717,7 +2717,7 @@
         <v>26</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>56767</v>
+        <v>56884</v>
       </c>
       <c r="C36" s="10" t="inlineStr">
         <is>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="D36" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E36" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F36" s="13" t="inlineStr">
@@ -2741,25 +2741,25 @@
       </c>
       <c r="G36" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H36" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I36" s="10" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="J36" s="9" t="n">
-        <v>39.07</v>
+        <v>33.42</v>
       </c>
       <c r="K36" s="10" t="n">
-        <v>1125</v>
+        <v>962</v>
       </c>
       <c r="L36" s="16" t="n">
-        <v>1155</v>
+        <v>992</v>
       </c>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2767,7 +2767,7 @@
         <v>27</v>
       </c>
       <c r="B37" s="18" t="n">
-        <v>56768</v>
+        <v>56885</v>
       </c>
       <c r="C37" s="10" t="inlineStr">
         <is>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="D37" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E37" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="F37" s="13" t="inlineStr">
@@ -2791,101 +2791,225 @@
       </c>
       <c r="G37" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H37" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I37" s="10" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="J37" s="9" t="n">
-        <v>39.07</v>
+        <v>33.42</v>
       </c>
       <c r="K37" s="10" t="n">
-        <v>1125</v>
+        <v>962</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>1155</v>
+        <v>992</v>
       </c>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="14" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="11" t="n"/>
-      <c r="H38" s="11" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="10" t="n"/>
-      <c r="L38" s="16">
-        <f>K38+30</f>
-        <v/>
+      <c r="B38" s="18" t="n">
+        <v>56886</v>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E38" s="10" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>962</v>
+      </c>
+      <c r="L38" s="16" t="n">
+        <v>992</v>
       </c>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="14" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="11" t="n"/>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="10" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="10" t="n"/>
-      <c r="L39" s="16">
-        <f>K39+30</f>
-        <v/>
+      <c r="B39" s="18" t="n">
+        <v>56887</v>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>962</v>
+      </c>
+      <c r="L39" s="16" t="n">
+        <v>992</v>
       </c>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="11" t="n"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="10" t="n"/>
-      <c r="L40" s="16">
-        <f>K40+30</f>
-        <v/>
+      <c r="B40" s="18" t="n">
+        <v>56890</v>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E40" s="10" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G40" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I40" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>962</v>
+      </c>
+      <c r="L40" s="16" t="n">
+        <v>992</v>
       </c>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="14" t="n"/>
-      <c r="E41" s="10" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="11" t="n"/>
-      <c r="H41" s="11" t="n"/>
-      <c r="I41" s="10" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="10" t="n"/>
-      <c r="L41" s="16">
-        <f>K41+30</f>
-        <v/>
+      <c r="B41" s="18" t="n">
+        <v>56891</v>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G41" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="n">
+        <v>160</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>962</v>
+      </c>
+      <c r="L41" s="16" t="n">
+        <v>992</v>
       </c>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>56406</v>
+        <v>55032</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
@@ -1486,30 +1486,30 @@
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>56783</v>
+        <v>55033</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
@@ -1536,30 +1536,30 @@
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>56784</v>
+        <v>55034</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>56797</v>
+        <v>55035</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
@@ -1636,30 +1636,30 @@
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>56800</v>
+        <v>55036</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
@@ -1686,30 +1686,30 @@
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>56802</v>
+        <v>55042</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
@@ -1736,30 +1736,30 @@
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>56803</v>
+        <v>55043</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
@@ -1786,30 +1786,30 @@
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>56804</v>
+        <v>55044</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
@@ -1836,30 +1836,30 @@
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>56806</v>
+        <v>55045</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
@@ -1886,30 +1886,30 @@
       </c>
       <c r="F19" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>56807</v>
+        <v>55046</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
@@ -1936,30 +1936,30 @@
       </c>
       <c r="F20" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,7 +1967,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>56810</v>
+        <v>55047</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
@@ -1986,30 +1986,30 @@
       </c>
       <c r="F21" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,7 +2017,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>56812</v>
+        <v>56899</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
@@ -2036,30 +2036,30 @@
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>56816</v>
+        <v>56900</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
@@ -2086,30 +2086,30 @@
       </c>
       <c r="F23" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2117,7 +2117,7 @@
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>56825</v>
+        <v>56901</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
@@ -2136,30 +2136,30 @@
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2167,7 +2167,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>56826</v>
+        <v>56902</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
@@ -2186,30 +2186,30 @@
       </c>
       <c r="F25" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2217,7 +2217,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>56833</v>
+        <v>56903</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
@@ -2236,30 +2236,30 @@
       </c>
       <c r="F26" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2267,7 +2267,7 @@
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>56847</v>
+        <v>56904</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
@@ -2286,30 +2286,30 @@
       </c>
       <c r="F27" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>33.42</v>
+        <v>16.35</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>962</v>
+        <v>1177</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>992</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2317,7 +2317,7 @@
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>56848</v>
+        <v>56905</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
@@ -2336,30 +2336,30 @@
       </c>
       <c r="F28" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I28" s="10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>33.42</v>
+        <v>14.87</v>
       </c>
       <c r="K28" s="10" t="n">
-        <v>962</v>
+        <v>1071</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>992</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2367,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>56849</v>
+        <v>56906</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
@@ -2386,30 +2386,30 @@
       </c>
       <c r="F29" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I29" s="10" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="J29" s="9" t="n">
-        <v>33.42</v>
+        <v>14.87</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>962</v>
+        <v>1071</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>992</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2417,7 +2417,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>56876</v>
+        <v>55017</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -2436,30 +2436,30 @@
       </c>
       <c r="F30" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I30" s="10" t="n">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="J30" s="9" t="n">
-        <v>33.42</v>
+        <v>15.07</v>
       </c>
       <c r="K30" s="10" t="n">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>992</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>56878</v>
+        <v>55018</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
@@ -2486,30 +2486,30 @@
       </c>
       <c r="F31" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I31" s="10" t="n">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="J31" s="9" t="n">
-        <v>33.42</v>
+        <v>15.07</v>
       </c>
       <c r="K31" s="10" t="n">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>992</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2517,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>56880</v>
+        <v>55019</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
@@ -2536,30 +2536,30 @@
       </c>
       <c r="F32" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I32" s="10" t="n">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>33.42</v>
+        <v>15.07</v>
       </c>
       <c r="K32" s="10" t="n">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="L32" s="16" t="n">
-        <v>992</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2567,7 +2567,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>56881</v>
+        <v>55020</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
@@ -2586,430 +2586,182 @@
       </c>
       <c r="F33" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I33" s="10" t="n">
-        <v>160</v>
+        <v>81</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>33.42</v>
+        <v>15.07</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>962</v>
+        <v>1085</v>
       </c>
       <c r="L33" s="16" t="n">
-        <v>992</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A34" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="18" t="n">
-        <v>56882</v>
-      </c>
-      <c r="C34" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D34" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E34" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F34" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G34" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H34" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I34" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J34" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K34" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L34" s="16" t="n">
-        <v>992</v>
+      <c r="B34" s="18" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="14" t="n"/>
+      <c r="E34" s="10" t="n"/>
+      <c r="F34" s="13" t="n"/>
+      <c r="G34" s="11" t="n"/>
+      <c r="H34" s="11" t="n"/>
+      <c r="I34" s="10" t="n"/>
+      <c r="J34" s="9" t="n"/>
+      <c r="K34" s="10" t="n"/>
+      <c r="L34" s="16">
+        <f>K34+30</f>
+        <v/>
       </c>
     </row>
     <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A35" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="18" t="n">
-        <v>56883</v>
-      </c>
-      <c r="C35" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D35" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E35" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F35" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G35" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H35" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I35" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J35" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K35" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L35" s="16" t="n">
-        <v>992</v>
+      <c r="B35" s="18" t="n"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="14" t="n"/>
+      <c r="E35" s="10" t="n"/>
+      <c r="F35" s="13" t="n"/>
+      <c r="G35" s="11" t="n"/>
+      <c r="H35" s="11" t="n"/>
+      <c r="I35" s="10" t="n"/>
+      <c r="J35" s="9" t="n"/>
+      <c r="K35" s="10" t="n"/>
+      <c r="L35" s="16">
+        <f>K35+30</f>
+        <v/>
       </c>
     </row>
     <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A36" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="18" t="n">
-        <v>56884</v>
-      </c>
-      <c r="C36" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D36" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E36" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G36" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H36" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I36" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J36" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K36" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L36" s="16" t="n">
-        <v>992</v>
+      <c r="B36" s="18" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="14" t="n"/>
+      <c r="E36" s="10" t="n"/>
+      <c r="F36" s="13" t="n"/>
+      <c r="G36" s="11" t="n"/>
+      <c r="H36" s="11" t="n"/>
+      <c r="I36" s="10" t="n"/>
+      <c r="J36" s="9" t="n"/>
+      <c r="K36" s="10" t="n"/>
+      <c r="L36" s="16">
+        <f>K36+30</f>
+        <v/>
       </c>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A37" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="18" t="n">
-        <v>56885</v>
-      </c>
-      <c r="C37" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D37" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E37" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F37" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G37" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H37" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I37" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J37" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K37" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L37" s="16" t="n">
-        <v>992</v>
+      <c r="B37" s="18" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="14" t="n"/>
+      <c r="E37" s="10" t="n"/>
+      <c r="F37" s="13" t="n"/>
+      <c r="G37" s="11" t="n"/>
+      <c r="H37" s="11" t="n"/>
+      <c r="I37" s="10" t="n"/>
+      <c r="J37" s="9" t="n"/>
+      <c r="K37" s="10" t="n"/>
+      <c r="L37" s="16">
+        <f>K37+30</f>
+        <v/>
       </c>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n">
-        <v>56886</v>
-      </c>
-      <c r="C38" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D38" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E38" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G38" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H38" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I38" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J38" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K38" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L38" s="16" t="n">
-        <v>992</v>
+      <c r="B38" s="18" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="14" t="n"/>
+      <c r="E38" s="10" t="n"/>
+      <c r="F38" s="13" t="n"/>
+      <c r="G38" s="11" t="n"/>
+      <c r="H38" s="11" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="9" t="n"/>
+      <c r="K38" s="10" t="n"/>
+      <c r="L38" s="16">
+        <f>K38+30</f>
+        <v/>
       </c>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n">
-        <v>56887</v>
-      </c>
-      <c r="C39" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D39" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E39" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F39" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G39" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H39" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I39" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J39" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K39" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L39" s="16" t="n">
-        <v>992</v>
+      <c r="B39" s="18" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="14" t="n"/>
+      <c r="E39" s="10" t="n"/>
+      <c r="F39" s="13" t="n"/>
+      <c r="G39" s="11" t="n"/>
+      <c r="H39" s="11" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="9" t="n"/>
+      <c r="K39" s="10" t="n"/>
+      <c r="L39" s="16">
+        <f>K39+30</f>
+        <v/>
       </c>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n">
-        <v>56890</v>
-      </c>
-      <c r="C40" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D40" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E40" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G40" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H40" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I40" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J40" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K40" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L40" s="16" t="n">
-        <v>992</v>
+      <c r="B40" s="18" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="14" t="n"/>
+      <c r="E40" s="10" t="n"/>
+      <c r="F40" s="13" t="n"/>
+      <c r="G40" s="11" t="n"/>
+      <c r="H40" s="11" t="n"/>
+      <c r="I40" s="10" t="n"/>
+      <c r="J40" s="9" t="n"/>
+      <c r="K40" s="10" t="n"/>
+      <c r="L40" s="16">
+        <f>K40+30</f>
+        <v/>
       </c>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n">
-        <v>56891</v>
-      </c>
-      <c r="C41" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D41" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="E41" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F41" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G41" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="H41" s="11" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="I41" s="10" t="n">
-        <v>160</v>
-      </c>
-      <c r="J41" s="9" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="K41" s="10" t="n">
-        <v>962</v>
-      </c>
-      <c r="L41" s="16" t="n">
-        <v>992</v>
+      <c r="B41" s="18" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="14" t="n"/>
+      <c r="E41" s="10" t="n"/>
+      <c r="F41" s="13" t="n"/>
+      <c r="G41" s="11" t="n"/>
+      <c r="H41" s="11" t="n"/>
+      <c r="I41" s="10" t="n"/>
+      <c r="J41" s="9" t="n"/>
+      <c r="K41" s="10" t="n"/>
+      <c r="L41" s="16">
+        <f>K41+30</f>
+        <v/>
       </c>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>55032</v>
+        <v>56272</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,17 +1476,17 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
@@ -1500,16 +1500,16 @@
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>55033</v>
+        <v>56278</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>55034</v>
+        <v>56280</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,17 +1576,17 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
@@ -1600,16 +1600,16 @@
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>55035</v>
+        <v>56292</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1626,17 +1626,17 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
@@ -1650,16 +1650,16 @@
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>55036</v>
+        <v>56294</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1676,17 +1676,17 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
@@ -1700,16 +1700,16 @@
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>55042</v>
+        <v>56297</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1726,17 +1726,17 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>55043</v>
+        <v>56298</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1776,17 +1776,17 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>55044</v>
+        <v>56321</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1826,17 +1826,17 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
@@ -1850,16 +1850,16 @@
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>55045</v>
+        <v>56322</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1876,17 +1876,17 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
@@ -1900,16 +1900,16 @@
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>55046</v>
+        <v>56324</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1926,17 +1926,17 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>132</v>
+        <v>312</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>16.35</v>
+        <v>38.66</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>1207</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,49 +1967,49 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>55047</v>
+        <v>525767</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,49 +2017,49 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>56899</v>
+        <v>525768</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2067,49 +2067,49 @@
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>56900</v>
+        <v>525769</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F23" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2117,49 +2117,49 @@
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>56901</v>
+        <v>525770</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2167,49 +2167,49 @@
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>56902</v>
+        <v>525771</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F25" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2217,49 +2217,49 @@
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>56903</v>
+        <v>525772</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>16.35</v>
+        <v>19.76</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2267,349 +2267,163 @@
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>56904</v>
+        <v>525773</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Ledger</t>
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Ivory Light</t>
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>16.35</v>
+        <v>13.2</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>1207</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n">
-        <v>56905</v>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G28" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H28" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I28" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J28" s="9" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="K28" s="10" t="n">
-        <v>1071</v>
-      </c>
-      <c r="L28" s="16" t="n">
-        <v>1101</v>
+      <c r="B28" s="18" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="10" t="n"/>
+      <c r="J28" s="9" t="n"/>
+      <c r="K28" s="10" t="n"/>
+      <c r="L28" s="16">
+        <f>K28+30</f>
+        <v/>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n">
-        <v>56906</v>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D29" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G29" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H29" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I29" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J29" s="9" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="K29" s="10" t="n">
-        <v>1071</v>
-      </c>
-      <c r="L29" s="16" t="n">
-        <v>1101</v>
+      <c r="B29" s="18" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="9" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="16">
+        <f>K29+30</f>
+        <v/>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="18" t="n">
-        <v>55017</v>
-      </c>
-      <c r="C30" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D30" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F30" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G30" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="H30" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I30" s="10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J30" s="9" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="K30" s="10" t="n">
-        <v>1085</v>
-      </c>
-      <c r="L30" s="16" t="n">
-        <v>1115</v>
+      <c r="B30" s="18" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="14" t="n"/>
+      <c r="E30" s="10" t="n"/>
+      <c r="F30" s="13" t="n"/>
+      <c r="G30" s="11" t="n"/>
+      <c r="H30" s="11" t="n"/>
+      <c r="I30" s="10" t="n"/>
+      <c r="J30" s="9" t="n"/>
+      <c r="K30" s="10" t="n"/>
+      <c r="L30" s="16">
+        <f>K30+30</f>
+        <v/>
       </c>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="n">
-        <v>55018</v>
-      </c>
-      <c r="C31" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D31" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E31" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F31" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G31" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="H31" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I31" s="10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J31" s="9" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="K31" s="10" t="n">
-        <v>1085</v>
-      </c>
-      <c r="L31" s="16" t="n">
-        <v>1115</v>
+      <c r="B31" s="18" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="14" t="n"/>
+      <c r="E31" s="10" t="n"/>
+      <c r="F31" s="13" t="n"/>
+      <c r="G31" s="11" t="n"/>
+      <c r="H31" s="11" t="n"/>
+      <c r="I31" s="10" t="n"/>
+      <c r="J31" s="9" t="n"/>
+      <c r="K31" s="10" t="n"/>
+      <c r="L31" s="16">
+        <f>K31+30</f>
+        <v/>
       </c>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="18" t="n">
-        <v>55019</v>
-      </c>
-      <c r="C32" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D32" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E32" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F32" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G32" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="H32" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I32" s="10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J32" s="9" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="K32" s="10" t="n">
-        <v>1085</v>
-      </c>
-      <c r="L32" s="16" t="n">
-        <v>1115</v>
+      <c r="B32" s="18" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="14" t="n"/>
+      <c r="E32" s="10" t="n"/>
+      <c r="F32" s="13" t="n"/>
+      <c r="G32" s="11" t="n"/>
+      <c r="H32" s="11" t="n"/>
+      <c r="I32" s="10" t="n"/>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="10" t="n"/>
+      <c r="L32" s="16">
+        <f>K32+30</f>
+        <v/>
       </c>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="18" t="n">
-        <v>55020</v>
-      </c>
-      <c r="C33" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D33" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E33" s="10" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="F33" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G33" s="11" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="H33" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I33" s="10" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" s="9" t="n">
-        <v>15.07</v>
-      </c>
-      <c r="K33" s="10" t="n">
-        <v>1085</v>
-      </c>
-      <c r="L33" s="16" t="n">
-        <v>1115</v>
+      <c r="B33" s="18" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="14" t="n"/>
+      <c r="E33" s="10" t="n"/>
+      <c r="F33" s="13" t="n"/>
+      <c r="G33" s="11" t="n"/>
+      <c r="H33" s="11" t="n"/>
+      <c r="I33" s="10" t="n"/>
+      <c r="J33" s="9" t="n"/>
+      <c r="K33" s="10" t="n"/>
+      <c r="L33" s="16">
+        <f>K33+30</f>
+        <v/>
       </c>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -31,6 +31,7 @@
     <font>
       <name val="Arial"/>
       <charset val="162"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -145,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -459,6 +460,122 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -509,116 +626,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -675,10 +689,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -686,12 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -741,7 +745,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -768,9 +800,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -786,56 +815,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1223,251 +1236,197 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="6.5546875" customWidth="1" style="20" min="1" max="1"/>
-    <col width="11.88671875" customWidth="1" style="20" min="2" max="2"/>
-    <col width="21.44140625" customWidth="1" style="20" min="3" max="3"/>
-    <col width="33.33203125" customWidth="1" style="20" min="4" max="4"/>
-    <col width="23" customWidth="1" style="20" min="5" max="5"/>
-    <col width="5.5546875" customWidth="1" style="20" min="6" max="6"/>
-    <col width="10" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9.88671875" customWidth="1" style="20" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="20" min="9" max="9"/>
-    <col width="10" customWidth="1" style="20" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="20" min="11" max="11"/>
-    <col width="9.109375" customWidth="1" style="26" min="12" max="12"/>
-    <col width="9.109375" customWidth="1" style="20" min="13" max="16384"/>
+    <col width="6.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.88671875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.44140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="33.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23" customWidth="1" style="1" min="5" max="5"/>
+    <col width="5.5546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10" customWidth="1" style="1" min="7" max="7"/>
+    <col width="9.88671875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="8.88671875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="10" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.109375" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.109375" customWidth="1" style="2" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" style="1" min="13" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>CONSIGNEE:</t>
         </is>
       </c>
-      <c r="B1" s="35" t="n"/>
-      <c r="C1" s="20" t="n"/>
-      <c r="D1" s="20" t="n"/>
-      <c r="E1" s="20" t="n"/>
-      <c r="F1" s="20" t="n"/>
-      <c r="G1" s="20" t="n"/>
-      <c r="H1" s="20" t="n"/>
-      <c r="I1" s="20" t="n"/>
-      <c r="J1" s="20" t="n"/>
-      <c r="K1" s="20" t="n"/>
-      <c r="L1" s="26" t="n"/>
+      <c r="B1" s="31" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="n"/>
-      <c r="B2" s="35" t="n"/>
-      <c r="C2" s="20" t="n"/>
-      <c r="D2" s="20" t="n"/>
-      <c r="E2" s="20" t="n"/>
-      <c r="F2" s="20" t="n"/>
-      <c r="G2" s="20" t="n"/>
-      <c r="H2" s="20" t="n"/>
-      <c r="I2" s="20" t="n"/>
-      <c r="J2" s="20" t="n"/>
-      <c r="K2" s="20" t="n"/>
-      <c r="L2" s="26" t="n"/>
+      <c r="A2" s="31" t="n"/>
+      <c r="B2" s="31" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>PO NO:</t>
         </is>
       </c>
-      <c r="B3" s="35" t="n"/>
-      <c r="C3" s="20" t="n"/>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="20" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="n"/>
-      <c r="H3" s="20" t="n"/>
-      <c r="I3" s="20" t="n"/>
-      <c r="J3" s="20" t="n"/>
-      <c r="K3" s="20" t="n"/>
-      <c r="L3" s="26" t="n"/>
+      <c r="B3" s="31" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="32" t="inlineStr">
         <is>
           <t>INVOICE NO:</t>
         </is>
       </c>
-      <c r="B4" s="35" t="n"/>
-      <c r="C4" s="20" t="n"/>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="20" t="n"/>
-      <c r="F4" s="20" t="n"/>
-      <c r="G4" s="20" t="n"/>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="20" t="n"/>
-      <c r="J4" s="20" t="n"/>
-      <c r="K4" s="20" t="n"/>
-      <c r="L4" s="26" t="n"/>
+      <c r="B4" s="31" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="33" t="inlineStr">
         <is>
           <t>CONT NO:</t>
         </is>
       </c>
-      <c r="B5" s="35" t="n"/>
-      <c r="C5" s="20" t="n"/>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="20" t="n"/>
-      <c r="F5" s="20" t="n"/>
-      <c r="G5" s="20" t="n"/>
-      <c r="H5" s="20" t="n"/>
-      <c r="I5" s="20" t="n"/>
-      <c r="J5" s="20" t="n"/>
-      <c r="K5" s="20" t="n"/>
-      <c r="L5" s="26" t="n"/>
+      <c r="B5" s="31" t="n"/>
     </row>
     <row r="6" ht="17.4" customHeight="1">
-      <c r="A6" s="48" t="inlineStr">
+      <c r="A6" s="46" t="inlineStr">
         <is>
           <t>ÇEKİ LİSTESİ</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="n"/>
-      <c r="B7" s="20" t="n"/>
-      <c r="C7" s="20" t="n"/>
-      <c r="D7" s="20" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="20" t="n"/>
-      <c r="G7" s="20" t="n"/>
-      <c r="H7" s="20" t="n"/>
-      <c r="I7" s="20" t="n"/>
-      <c r="J7" s="20" t="n"/>
-      <c r="K7" s="72" t="n"/>
+      <c r="K7" s="70" t="n"/>
     </row>
     <row r="8" ht="17.4" customHeight="1">
-      <c r="A8" s="34" t="n"/>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="34" t="n"/>
-      <c r="D8" s="34" t="n"/>
-      <c r="E8" s="34" t="n"/>
-      <c r="F8" s="34" t="n"/>
-      <c r="G8" s="34" t="n"/>
-      <c r="H8" s="34" t="n"/>
-      <c r="I8" s="34" t="n"/>
-      <c r="J8" s="34" t="n"/>
-      <c r="K8" s="34" t="n"/>
-      <c r="L8" s="34" t="n"/>
+      <c r="A8" s="30" t="n"/>
+      <c r="B8" s="30" t="n"/>
+      <c r="C8" s="30" t="n"/>
+      <c r="D8" s="30" t="n"/>
+      <c r="E8" s="30" t="n"/>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="30" t="n"/>
+      <c r="H8" s="30" t="n"/>
+      <c r="I8" s="30" t="n"/>
+      <c r="J8" s="30" t="n"/>
+      <c r="K8" s="30" t="n"/>
+      <c r="L8" s="30" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="62" t="inlineStr">
         <is>
           <t>CRATE</t>
         </is>
       </c>
-      <c r="B9" s="55" t="inlineStr">
+      <c r="B9" s="61" t="inlineStr">
         <is>
           <t>CASE ID</t>
         </is>
       </c>
-      <c r="C9" s="55" t="inlineStr">
+      <c r="C9" s="61" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D9" s="55" t="inlineStr">
+      <c r="D9" s="61" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="E9" s="55" t="inlineStr">
+      <c r="E9" s="61" t="inlineStr">
         <is>
           <t>COLOR</t>
         </is>
       </c>
-      <c r="F9" s="56" t="inlineStr">
+      <c r="F9" s="62" t="inlineStr">
         <is>
           <t>SIZES (cm)</t>
         </is>
       </c>
-      <c r="G9" s="73" t="n"/>
-      <c r="H9" s="74" t="n"/>
-      <c r="I9" s="55" t="inlineStr">
+      <c r="G9" s="71" t="n"/>
+      <c r="H9" s="72" t="n"/>
+      <c r="I9" s="61" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="J9" s="56" t="inlineStr">
+      <c r="J9" s="62" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="K9" s="56" t="inlineStr">
+      <c r="K9" s="62" t="inlineStr">
         <is>
           <t>NET</t>
         </is>
       </c>
-      <c r="L9" s="56" t="inlineStr">
+      <c r="L9" s="62" t="inlineStr">
         <is>
           <t>GROSS</t>
         </is>
       </c>
+      <c r="M9" s="73" t="inlineStr">
+        <is>
+          <t>Kasa Ölçüsü</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="62" t="inlineStr">
         <is>
           <t>NR</t>
         </is>
       </c>
-      <c r="B10" s="75" t="n"/>
-      <c r="C10" s="75" t="n"/>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="75" t="n"/>
-      <c r="F10" s="56" t="inlineStr">
+      <c r="B10" s="74" t="n"/>
+      <c r="C10" s="74" t="n"/>
+      <c r="D10" s="74" t="n"/>
+      <c r="E10" s="74" t="n"/>
+      <c r="F10" s="62" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="G10" s="56" t="inlineStr">
+      <c r="G10" s="62" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H10" s="56" t="inlineStr">
+      <c r="H10" s="62" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I10" s="75" t="n"/>
-      <c r="J10" s="56" t="inlineStr">
+      <c r="I10" s="74" t="n"/>
+      <c r="J10" s="62" t="inlineStr">
         <is>
           <t>SQM</t>
         </is>
       </c>
-      <c r="K10" s="56" t="inlineStr">
+      <c r="K10" s="62" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="L10" s="56" t="inlineStr">
+      <c r="L10" s="62" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
+      <c r="M10" s="74" t="n"/>
     </row>
     <row r="11" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A11" s="17" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>56272</v>
+        <v>57634</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,12 +1435,12 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -1491,25 +1450,30 @@
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>38.66</v>
+        <v>1</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1113</v>
+        <v>29</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1143</v>
+        <v>59</v>
+      </c>
+      <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>20x60x5</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1481,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>56278</v>
+        <v>57635</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,12 +1490,12 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Meandros Light</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -1541,776 +1505,331 @@
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>312</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>38.66</v>
+        <v>1</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1113</v>
+        <v>29</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1143</v>
+        <v>59</v>
+      </c>
+      <c r="M12" s="10" t="inlineStr">
+        <is>
+          <t>40x120x2</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n">
-        <v>56280</v>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F13" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L13" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B13" s="18" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="9" t="n"/>
+      <c r="K13" s="10" t="n"/>
+      <c r="L13" s="16">
+        <f>K13+30</f>
+        <v/>
+      </c>
+      <c r="M13" s="10" t="n"/>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>56292</v>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L14" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="10" t="n"/>
+      <c r="L14" s="16">
+        <f>K14+30</f>
+        <v/>
+      </c>
+      <c r="M14" s="10" t="n"/>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>56294</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L15" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="10" t="n"/>
+      <c r="L15" s="16">
+        <f>K15+30</f>
+        <v/>
+      </c>
+      <c r="M15" s="10" t="n"/>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>56297</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="10" t="n"/>
+      <c r="L16" s="16">
+        <f>K16+30</f>
+        <v/>
+      </c>
+      <c r="M16" s="10" t="n"/>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>56298</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L17" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="16">
+        <f>K17+30</f>
+        <v/>
+      </c>
+      <c r="M17" s="10" t="n"/>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>56321</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="16">
+        <f>K18+30</f>
+        <v/>
+      </c>
+      <c r="M18" s="10" t="n"/>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>56322</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L19" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="9" t="n"/>
+      <c r="K19" s="10" t="n"/>
+      <c r="L19" s="16">
+        <f>K19+30</f>
+        <v/>
+      </c>
+      <c r="M19" s="10" t="n"/>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>56324</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <v>1143</v>
-      </c>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="10" t="n"/>
+      <c r="L20" s="16">
+        <f>K20+30</f>
+        <v/>
+      </c>
+      <c r="M20" s="10" t="n"/>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>525767</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="16">
+        <f>K21+30</f>
+        <v/>
+      </c>
+      <c r="M21" s="10" t="n"/>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
-        <v>525768</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B22" s="18" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="16">
+        <f>K22+30</f>
+        <v/>
+      </c>
+      <c r="M22" s="10" t="n"/>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>525769</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B23" s="18" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="16">
+        <f>K23+30</f>
+        <v/>
+      </c>
+      <c r="M23" s="10" t="n"/>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
-        <v>525770</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B24" s="18" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="16">
+        <f>K24+30</f>
+        <v/>
+      </c>
+      <c r="M24" s="10" t="n"/>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n">
-        <v>525771</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="16">
+        <f>K25+30</f>
+        <v/>
+      </c>
+      <c r="M25" s="10" t="n"/>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>525772</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="16">
+        <f>K26+30</f>
+        <v/>
+      </c>
+      <c r="M26" s="10" t="n"/>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>525773</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>144</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>30</v>
-      </c>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="10" t="n"/>
+      <c r="L27" s="16">
+        <f>K27+30</f>
+        <v/>
+      </c>
+      <c r="M27" s="10" t="n"/>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
@@ -2330,6 +1849,7 @@
         <f>K28+30</f>
         <v/>
       </c>
+      <c r="M28" s="10" t="n"/>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
@@ -2349,6 +1869,7 @@
         <f>K29+30</f>
         <v/>
       </c>
+      <c r="M29" s="10" t="n"/>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A30" s="17" t="n">
@@ -2368,6 +1889,7 @@
         <f>K30+30</f>
         <v/>
       </c>
+      <c r="M30" s="10" t="n"/>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A31" s="17" t="n">
@@ -2387,6 +1909,7 @@
         <f>K31+30</f>
         <v/>
       </c>
+      <c r="M31" s="10" t="n"/>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A32" s="17" t="n">
@@ -2406,6 +1929,7 @@
         <f>K32+30</f>
         <v/>
       </c>
+      <c r="M32" s="10" t="n"/>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A33" s="17" t="n">
@@ -2425,6 +1949,7 @@
         <f>K33+30</f>
         <v/>
       </c>
+      <c r="M33" s="10" t="n"/>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A34" s="17" t="n">
@@ -2444,6 +1969,7 @@
         <f>K34+30</f>
         <v/>
       </c>
+      <c r="M34" s="10" t="n"/>
     </row>
     <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A35" s="17" t="n">
@@ -2463,6 +1989,7 @@
         <f>K35+30</f>
         <v/>
       </c>
+      <c r="M35" s="10" t="n"/>
     </row>
     <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A36" s="17" t="n">
@@ -2482,6 +2009,7 @@
         <f>K36+30</f>
         <v/>
       </c>
+      <c r="M36" s="10" t="n"/>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A37" s="17" t="n">
@@ -2501,6 +2029,7 @@
         <f>K37+30</f>
         <v/>
       </c>
+      <c r="M37" s="10" t="n"/>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
@@ -2520,6 +2049,7 @@
         <f>K38+30</f>
         <v/>
       </c>
+      <c r="M38" s="10" t="n"/>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
@@ -2539,6 +2069,7 @@
         <f>K39+30</f>
         <v/>
       </c>
+      <c r="M39" s="10" t="n"/>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
@@ -2558,6 +2089,7 @@
         <f>K40+30</f>
         <v/>
       </c>
+      <c r="M40" s="10" t="n"/>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
@@ -2577,6 +2109,7 @@
         <f>K41+30</f>
         <v/>
       </c>
+      <c r="M41" s="10" t="n"/>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A42" s="17" t="n">
@@ -2596,6 +2129,7 @@
         <f>K42+30</f>
         <v/>
       </c>
+      <c r="M42" s="10" t="n"/>
     </row>
     <row r="43" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A43" s="17" t="n">
@@ -2615,6 +2149,7 @@
         <f>K43+30</f>
         <v/>
       </c>
+      <c r="M43" s="10" t="n"/>
     </row>
     <row r="44" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A44" s="17" t="n">
@@ -2634,6 +2169,7 @@
         <f>K44+30</f>
         <v/>
       </c>
+      <c r="M44" s="10" t="n"/>
     </row>
     <row r="45" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A45" s="17" t="n">
@@ -2653,6 +2189,7 @@
         <f>K45+30</f>
         <v/>
       </c>
+      <c r="M45" s="10" t="n"/>
     </row>
     <row r="46" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A46" s="17" t="n">
@@ -2672,6 +2209,7 @@
         <f>K46+30</f>
         <v/>
       </c>
+      <c r="M46" s="10" t="n"/>
     </row>
     <row r="47" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A47" s="17" t="n">
@@ -2691,6 +2229,7 @@
         <f>K47+30</f>
         <v/>
       </c>
+      <c r="M47" s="10" t="n"/>
     </row>
     <row r="48" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A48" s="17" t="n">
@@ -2710,6 +2249,7 @@
         <f>K48+30</f>
         <v/>
       </c>
+      <c r="M48" s="10" t="n"/>
     </row>
     <row r="49" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A49" s="17" t="n">
@@ -2729,6 +2269,7 @@
         <f>K49+30</f>
         <v/>
       </c>
+      <c r="M49" s="10" t="n"/>
     </row>
     <row r="50" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A50" s="17" t="n">
@@ -2748,6 +2289,7 @@
         <f>K50+30</f>
         <v/>
       </c>
+      <c r="M50" s="10" t="n"/>
     </row>
     <row r="51" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A51" s="17" t="n">
@@ -2767,6 +2309,7 @@
         <f>K51+30</f>
         <v/>
       </c>
+      <c r="M51" s="10" t="n"/>
     </row>
     <row r="52" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A52" s="17" t="n">
@@ -2786,6 +2329,7 @@
         <f>K52+30</f>
         <v/>
       </c>
+      <c r="M52" s="10" t="n"/>
     </row>
     <row r="53" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A53" s="17" t="n">
@@ -2805,6 +2349,7 @@
         <f>K53+30</f>
         <v/>
       </c>
+      <c r="M53" s="10" t="n"/>
     </row>
     <row r="54" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A54" s="17" t="n">
@@ -2824,6 +2369,7 @@
         <f>K54+30</f>
         <v/>
       </c>
+      <c r="M54" s="10" t="n"/>
     </row>
     <row r="55" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A55" s="17" t="n">
@@ -2843,6 +2389,7 @@
         <f>K55+30</f>
         <v/>
       </c>
+      <c r="M55" s="10" t="n"/>
     </row>
     <row r="56" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A56" s="17" t="n">
@@ -2862,6 +2409,7 @@
         <f>K56+30</f>
         <v/>
       </c>
+      <c r="M56" s="10" t="n"/>
     </row>
     <row r="57" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A57" s="17" t="n">
@@ -2881,6 +2429,7 @@
         <f>K57+30</f>
         <v/>
       </c>
+      <c r="M57" s="10" t="n"/>
     </row>
     <row r="58" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A58" s="17" t="n">
@@ -2900,6 +2449,7 @@
         <f>K58+30</f>
         <v/>
       </c>
+      <c r="M58" s="10" t="n"/>
     </row>
     <row r="59" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A59" s="17" t="n">
@@ -2919,6 +2469,7 @@
         <f>K59+30</f>
         <v/>
       </c>
+      <c r="M59" s="10" t="n"/>
     </row>
     <row r="60" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A60" s="17" t="n">
@@ -2938,6 +2489,7 @@
         <f>K60+30</f>
         <v/>
       </c>
+      <c r="M60" s="10" t="n"/>
     </row>
     <row r="61" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A61" s="17" t="n">
@@ -2957,6 +2509,7 @@
         <f>K61+30</f>
         <v/>
       </c>
+      <c r="M61" s="10" t="n"/>
     </row>
     <row r="62" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A62" s="17" t="n">
@@ -2976,6 +2529,7 @@
         <f>K62+30</f>
         <v/>
       </c>
+      <c r="M62" s="10" t="n"/>
     </row>
     <row r="63" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A63" s="17" t="n">
@@ -2995,6 +2549,7 @@
         <f>K63+30</f>
         <v/>
       </c>
+      <c r="M63" s="10" t="n"/>
     </row>
     <row r="64" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A64" s="17" t="n">
@@ -3014,6 +2569,7 @@
         <f>K64+30</f>
         <v/>
       </c>
+      <c r="M64" s="10" t="n"/>
     </row>
     <row r="65" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A65" s="17" t="n">
@@ -3033,6 +2589,7 @@
         <f>K65+30</f>
         <v/>
       </c>
+      <c r="M65" s="10" t="n"/>
     </row>
     <row r="66" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A66" s="17" t="n">
@@ -3052,6 +2609,7 @@
         <f>K66+30</f>
         <v/>
       </c>
+      <c r="M66" s="10" t="n"/>
     </row>
     <row r="67" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A67" s="17" t="n">
@@ -3071,6 +2629,7 @@
         <f>K67+30</f>
         <v/>
       </c>
+      <c r="M67" s="10" t="n"/>
     </row>
     <row r="68" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A68" s="17" t="n">
@@ -3090,6 +2649,7 @@
         <f>K68+30</f>
         <v/>
       </c>
+      <c r="M68" s="10" t="n"/>
     </row>
     <row r="69" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A69" s="17" t="n">
@@ -3109,6 +2669,7 @@
         <f>K69+30</f>
         <v/>
       </c>
+      <c r="M69" s="10" t="n"/>
     </row>
     <row r="70" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A70" s="17" t="n">
@@ -3128,6 +2689,7 @@
         <f>K70+30</f>
         <v/>
       </c>
+      <c r="M70" s="10" t="n"/>
     </row>
     <row r="71" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A71" s="17" t="n">
@@ -3147,6 +2709,7 @@
         <f>K71+30</f>
         <v/>
       </c>
+      <c r="M71" s="10" t="n"/>
     </row>
     <row r="72" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A72" s="17" t="n">
@@ -3166,6 +2729,7 @@
         <f>K72+30</f>
         <v/>
       </c>
+      <c r="M72" s="10" t="n"/>
     </row>
     <row r="73" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A73" s="17" t="n">
@@ -3185,6 +2749,7 @@
         <f>K73+30</f>
         <v/>
       </c>
+      <c r="M73" s="10" t="n"/>
     </row>
     <row r="74" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A74" s="17" t="n">
@@ -3204,6 +2769,7 @@
         <f>K74+30</f>
         <v/>
       </c>
+      <c r="M74" s="10" t="n"/>
     </row>
     <row r="75" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A75" s="17" t="n">
@@ -3223,6 +2789,7 @@
         <f>K75+30</f>
         <v/>
       </c>
+      <c r="M75" s="10" t="n"/>
     </row>
     <row r="76" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A76" s="17" t="n">
@@ -3242,6 +2809,7 @@
         <f>K76+30</f>
         <v/>
       </c>
+      <c r="M76" s="10" t="n"/>
     </row>
     <row r="77" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A77" s="17" t="n">
@@ -3261,6 +2829,7 @@
         <f>K77+30</f>
         <v/>
       </c>
+      <c r="M77" s="10" t="n"/>
     </row>
     <row r="78" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A78" s="17" t="n">
@@ -3280,6 +2849,7 @@
         <f>K78+30</f>
         <v/>
       </c>
+      <c r="M78" s="10" t="n"/>
     </row>
     <row r="79" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A79" s="17" t="n">
@@ -3299,6 +2869,7 @@
         <f>K79+30</f>
         <v/>
       </c>
+      <c r="M79" s="10" t="n"/>
     </row>
     <row r="80" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A80" s="17" t="n">
@@ -3318,6 +2889,7 @@
         <f>K80+30</f>
         <v/>
       </c>
+      <c r="M80" s="10" t="n"/>
     </row>
     <row r="81" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A81" s="17" t="n">
@@ -3337,6 +2909,7 @@
         <f>K81+30</f>
         <v/>
       </c>
+      <c r="M81" s="10" t="n"/>
     </row>
     <row r="82" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A82" s="17" t="n">
@@ -3356,6 +2929,7 @@
         <f>K82+30</f>
         <v/>
       </c>
+      <c r="M82" s="10" t="n"/>
     </row>
     <row r="83" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A83" s="17" t="n">
@@ -3375,6 +2949,7 @@
         <f>K83+30</f>
         <v/>
       </c>
+      <c r="M83" s="10" t="n"/>
     </row>
     <row r="84" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A84" s="17" t="n">
@@ -3394,6 +2969,7 @@
         <f>K84+30</f>
         <v/>
       </c>
+      <c r="M84" s="10" t="n"/>
     </row>
     <row r="85" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A85" s="17" t="n">
@@ -3413,6 +2989,7 @@
         <f>K85+30</f>
         <v/>
       </c>
+      <c r="M85" s="10" t="n"/>
     </row>
     <row r="86" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A86" s="17" t="n">
@@ -3432,6 +3009,7 @@
         <f>K86+30</f>
         <v/>
       </c>
+      <c r="M86" s="10" t="n"/>
     </row>
     <row r="87" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A87" s="17" t="n">
@@ -3442,7 +3020,7 @@
       <c r="D87" s="14" t="n"/>
       <c r="E87" s="10" t="n"/>
       <c r="F87" s="13" t="n"/>
-      <c r="G87" s="76" t="n"/>
+      <c r="G87" s="75" t="n"/>
       <c r="H87" s="11" t="n"/>
       <c r="I87" s="10" t="n"/>
       <c r="J87" s="9" t="n"/>
@@ -3451,11 +3029,12 @@
         <f>K87+30</f>
         <v/>
       </c>
+      <c r="M87" s="10" t="n"/>
     </row>
     <row r="88" ht="15.9" customFormat="1" customHeight="1" s="4">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="26" t="n"/>
-      <c r="F88" s="53" t="n"/>
+      <c r="B88" s="2" t="n"/>
+      <c r="F88" s="59" t="n"/>
       <c r="I88" s="6">
         <f>SUM(I11:I87)</f>
         <v/>
@@ -3475,111 +3054,111 @@
     </row>
     <row r="89" ht="15.9" customFormat="1" customHeight="1" s="4">
       <c r="A89" s="8" t="n"/>
-      <c r="B89" s="26" t="n"/>
-      <c r="F89" s="53" t="n"/>
-      <c r="G89" s="53" t="n"/>
-      <c r="H89" s="53" t="n"/>
+      <c r="B89" s="2" t="n"/>
+      <c r="F89" s="59" t="n"/>
+      <c r="G89" s="59" t="n"/>
+      <c r="H89" s="59" t="n"/>
       <c r="I89" s="6" t="n"/>
       <c r="J89" s="7" t="n"/>
       <c r="K89" s="6" t="n"/>
       <c r="L89" s="5" t="n"/>
     </row>
     <row r="90" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A90" s="31" t="n"/>
-      <c r="B90" s="28" t="n"/>
-      <c r="C90" s="29" t="n"/>
-      <c r="D90" s="30" t="n"/>
-      <c r="E90" s="30" t="n"/>
-      <c r="F90" s="53" t="n"/>
-      <c r="G90" s="53" t="n"/>
-      <c r="H90" s="53" t="n"/>
+      <c r="A90" s="27" t="n"/>
+      <c r="B90" s="24" t="n"/>
+      <c r="C90" s="25" t="n"/>
+      <c r="D90" s="26" t="n"/>
+      <c r="E90" s="26" t="n"/>
+      <c r="F90" s="59" t="n"/>
+      <c r="G90" s="59" t="n"/>
+      <c r="H90" s="59" t="n"/>
       <c r="I90" s="6" t="n"/>
       <c r="J90" s="7" t="n"/>
       <c r="K90" s="6" t="n"/>
       <c r="L90" s="5" t="n"/>
     </row>
     <row r="91" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A91" s="67" t="inlineStr">
+      <c r="A91" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL CASES                                                        </t>
         </is>
       </c>
-      <c r="B91" s="77" t="n"/>
-      <c r="C91" s="78" t="inlineStr">
+      <c r="B91" s="76" t="n"/>
+      <c r="C91" s="77" t="inlineStr">
         <is>
           <t xml:space="preserve"> W. CASES</t>
         </is>
       </c>
-      <c r="D91" s="79" t="n"/>
-      <c r="E91" s="30" t="n"/>
-      <c r="F91" s="53" t="n"/>
-      <c r="G91" s="53" t="n"/>
-      <c r="H91" s="53" t="n"/>
+      <c r="D91" s="78" t="n"/>
+      <c r="E91" s="26" t="n"/>
+      <c r="F91" s="59" t="n"/>
+      <c r="G91" s="59" t="n"/>
+      <c r="H91" s="59" t="n"/>
       <c r="I91" s="6" t="n"/>
       <c r="J91" s="7" t="n"/>
       <c r="K91" s="6" t="n"/>
       <c r="L91" s="5" t="n"/>
     </row>
     <row r="92" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A92" s="42" t="n"/>
-      <c r="B92" s="33" t="n"/>
-      <c r="C92" s="33" t="n"/>
-      <c r="D92" s="30" t="n"/>
-      <c r="E92" s="30" t="n"/>
-      <c r="F92" s="53" t="n"/>
-      <c r="G92" s="53" t="n"/>
-      <c r="H92" s="53" t="n"/>
+      <c r="A92" s="38" t="n"/>
+      <c r="B92" s="29" t="n"/>
+      <c r="C92" s="29" t="n"/>
+      <c r="D92" s="26" t="n"/>
+      <c r="E92" s="26" t="n"/>
+      <c r="F92" s="59" t="n"/>
+      <c r="G92" s="59" t="n"/>
+      <c r="H92" s="59" t="n"/>
       <c r="I92" s="6" t="n"/>
       <c r="J92" s="7" t="n"/>
       <c r="K92" s="6" t="n"/>
       <c r="L92" s="5" t="n"/>
     </row>
     <row r="93" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A93" s="67" t="inlineStr">
+      <c r="A93" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL NET KG                         </t>
         </is>
       </c>
-      <c r="B93" s="77" t="n"/>
-      <c r="C93" s="80">
+      <c r="B93" s="76" t="n"/>
+      <c r="C93" s="79">
         <f>+K88</f>
         <v/>
       </c>
-      <c r="D93" s="79" t="n"/>
-      <c r="E93" s="43" t="inlineStr">
+      <c r="D93" s="78" t="n"/>
+      <c r="E93" s="39" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
       </c>
-      <c r="F93" s="53" t="n"/>
-      <c r="G93" s="53" t="n"/>
-      <c r="H93" s="53" t="n"/>
+      <c r="F93" s="59" t="n"/>
+      <c r="G93" s="59" t="n"/>
+      <c r="H93" s="59" t="n"/>
       <c r="I93" s="6" t="n"/>
       <c r="J93" s="7" t="n"/>
       <c r="K93" s="6" t="n"/>
       <c r="L93" s="5" t="n"/>
     </row>
     <row r="94" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A94" s="32" t="n"/>
-      <c r="B94" s="28" t="n"/>
-      <c r="C94" s="29" t="n"/>
-      <c r="D94" s="30" t="n"/>
-      <c r="E94" s="30" t="n"/>
+      <c r="A94" s="28" t="n"/>
+      <c r="B94" s="24" t="n"/>
+      <c r="C94" s="25" t="n"/>
+      <c r="D94" s="26" t="n"/>
+      <c r="E94" s="26" t="n"/>
       <c r="L94" s="3" t="n"/>
     </row>
     <row r="95" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A95" s="67" t="inlineStr">
+      <c r="A95" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL GROSS KG                     </t>
         </is>
       </c>
-      <c r="B95" s="77" t="n"/>
-      <c r="C95" s="80">
+      <c r="B95" s="76" t="n"/>
+      <c r="C95" s="79">
         <f>+L88</f>
         <v/>
       </c>
-      <c r="D95" s="79" t="n"/>
-      <c r="E95" s="43" t="inlineStr">
+      <c r="D95" s="78" t="n"/>
+      <c r="E95" s="39" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
@@ -3587,148 +3166,127 @@
       <c r="L95" s="3" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="44" t="n"/>
-      <c r="B96" s="45" t="n"/>
-      <c r="C96" s="46" t="n"/>
-      <c r="D96" s="47" t="n"/>
-      <c r="E96" s="43" t="n"/>
+      <c r="A96" s="40" t="n"/>
+      <c r="B96" s="41" t="n"/>
+      <c r="C96" s="42" t="n"/>
+      <c r="D96" s="43" t="n"/>
+      <c r="E96" s="39" t="n"/>
       <c r="L96" s="3" t="n"/>
     </row>
     <row r="97" ht="18" customHeight="1" thickBot="1">
-      <c r="A97" s="62" t="inlineStr">
+      <c r="A97" s="67" t="inlineStr">
         <is>
           <t>EK AÇIKLAMALAR</t>
         </is>
       </c>
-      <c r="E97" s="57" t="inlineStr">
+      <c r="E97" s="47" t="inlineStr">
         <is>
           <t>KASA ÖLÇÜLERİ</t>
         </is>
       </c>
-      <c r="L97" s="81" t="n"/>
+      <c r="L97" s="80" t="n"/>
     </row>
     <row r="98" ht="25.05" customHeight="1">
-      <c r="A98" s="63" t="n"/>
-      <c r="B98" s="82" t="n"/>
-      <c r="C98" s="82" t="n"/>
-      <c r="D98" s="82" t="n"/>
-      <c r="E98" s="83" t="n"/>
-      <c r="F98" s="82" t="n"/>
-      <c r="G98" s="82" t="n"/>
-      <c r="H98" s="82" t="n"/>
-      <c r="I98" s="82" t="n"/>
-      <c r="J98" s="82" t="n"/>
-      <c r="K98" s="82" t="n"/>
-      <c r="L98" s="84" t="n"/>
+      <c r="A98" s="44" t="n"/>
+      <c r="B98" s="81" t="n"/>
+      <c r="C98" s="81" t="n"/>
+      <c r="D98" s="81" t="n"/>
+      <c r="E98" s="82" t="n"/>
+      <c r="F98" s="81" t="n"/>
+      <c r="G98" s="81" t="n"/>
+      <c r="H98" s="81" t="n"/>
+      <c r="I98" s="81" t="n"/>
+      <c r="J98" s="81" t="n"/>
+      <c r="K98" s="81" t="n"/>
+      <c r="L98" s="83" t="n"/>
     </row>
     <row r="99" ht="25.05" customHeight="1">
       <c r="A99" s="8" t="n"/>
-      <c r="B99" s="26" t="n"/>
-      <c r="C99" s="26" t="n"/>
-      <c r="D99" s="26" t="n"/>
-      <c r="E99" s="25" t="n"/>
-      <c r="F99" s="26" t="n"/>
-      <c r="G99" s="26" t="n"/>
-      <c r="H99" s="26" t="n"/>
-      <c r="I99" s="26" t="n"/>
-      <c r="J99" s="26" t="n"/>
-      <c r="K99" s="26" t="n"/>
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="21" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+      <c r="H99" s="2" t="n"/>
+      <c r="I99" s="2" t="n"/>
+      <c r="J99" s="2" t="n"/>
+      <c r="K99" s="2" t="n"/>
       <c r="L99" s="3" t="n"/>
     </row>
     <row r="100" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A100" s="38" t="n"/>
-      <c r="B100" s="39" t="n"/>
-      <c r="C100" s="39" t="n"/>
-      <c r="D100" s="39" t="n"/>
-      <c r="E100" s="40" t="n"/>
-      <c r="F100" s="39" t="n"/>
-      <c r="G100" s="39" t="n"/>
-      <c r="H100" s="39" t="n"/>
-      <c r="I100" s="39" t="n"/>
-      <c r="J100" s="39" t="n"/>
-      <c r="K100" s="39" t="n"/>
-      <c r="L100" s="41" t="n"/>
+      <c r="A100" s="34" t="n"/>
+      <c r="B100" s="35" t="n"/>
+      <c r="C100" s="35" t="n"/>
+      <c r="D100" s="35" t="n"/>
+      <c r="E100" s="36" t="n"/>
+      <c r="F100" s="35" t="n"/>
+      <c r="G100" s="35" t="n"/>
+      <c r="H100" s="35" t="n"/>
+      <c r="I100" s="35" t="n"/>
+      <c r="J100" s="35" t="n"/>
+      <c r="K100" s="35" t="n"/>
+      <c r="L100" s="37" t="n"/>
     </row>
     <row r="101" ht="25.05" customHeight="1">
-      <c r="A101" s="62" t="inlineStr">
+      <c r="A101" s="67" t="inlineStr">
         <is>
           <t>KONTEYNER İÇİ DAĞILIM</t>
         </is>
       </c>
-      <c r="E101" s="57" t="inlineStr">
+      <c r="E101" s="47" t="inlineStr">
         <is>
           <t>YÜKLEME TOPLANTISI NOTLARI</t>
         </is>
       </c>
-      <c r="L101" s="81" t="n"/>
+      <c r="L101" s="80" t="n"/>
     </row>
     <row r="102" ht="25.05" customHeight="1">
-      <c r="A102" s="61" t="n"/>
-      <c r="B102" s="85" t="n"/>
-      <c r="C102" s="85" t="n"/>
-      <c r="D102" s="85" t="n"/>
-      <c r="E102" s="86" t="n"/>
-      <c r="F102" s="85" t="n"/>
-      <c r="G102" s="85" t="n"/>
-      <c r="H102" s="85" t="n"/>
-      <c r="I102" s="85" t="n"/>
-      <c r="J102" s="85" t="n"/>
-      <c r="K102" s="85" t="n"/>
-      <c r="L102" s="87" t="n"/>
+      <c r="A102" s="66" t="n"/>
+      <c r="B102" s="84" t="n"/>
+      <c r="C102" s="84" t="n"/>
+      <c r="D102" s="84" t="n"/>
+      <c r="E102" s="85" t="n"/>
+      <c r="F102" s="84" t="n"/>
+      <c r="G102" s="84" t="n"/>
+      <c r="H102" s="84" t="n"/>
+      <c r="I102" s="84" t="n"/>
+      <c r="J102" s="84" t="n"/>
+      <c r="K102" s="84" t="n"/>
+      <c r="L102" s="86" t="n"/>
     </row>
     <row r="103" ht="25.05" customHeight="1">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="26" t="n"/>
-      <c r="C103" s="26" t="n"/>
-      <c r="D103" s="26" t="n"/>
-      <c r="E103" s="25" t="n"/>
-      <c r="F103" s="26" t="n"/>
-      <c r="G103" s="26" t="n"/>
-      <c r="H103" s="26" t="n"/>
-      <c r="I103" s="26" t="n"/>
-      <c r="J103" s="26" t="n"/>
-      <c r="K103" s="26" t="n"/>
-      <c r="L103" s="24" t="n"/>
+      <c r="A103" s="20" t="n"/>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="21" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="22" t="n"/>
     </row>
     <row r="104" ht="25.05" customHeight="1">
-      <c r="A104" s="49" t="n"/>
-      <c r="B104" s="88" t="n"/>
-      <c r="C104" s="88" t="n"/>
-      <c r="D104" s="88" t="n"/>
-      <c r="E104" s="89" t="n"/>
-      <c r="F104" s="88" t="n"/>
-      <c r="G104" s="88" t="n"/>
-      <c r="H104" s="88" t="n"/>
-      <c r="I104" s="88" t="n"/>
-      <c r="J104" s="88" t="n"/>
-      <c r="K104" s="88" t="n"/>
-      <c r="L104" s="90" t="n"/>
-    </row>
-    <row r="105" ht="25.05" customHeight="1">
-      <c r="A105" s="20" t="n"/>
-      <c r="B105" s="20" t="n"/>
-      <c r="C105" s="20" t="n"/>
-      <c r="D105" s="20" t="n"/>
-      <c r="E105" s="20" t="n"/>
-      <c r="F105" s="20" t="n"/>
-      <c r="G105" s="20" t="n"/>
-      <c r="H105" s="20" t="n"/>
-      <c r="I105" s="20" t="n"/>
-      <c r="J105" s="20" t="n"/>
-      <c r="K105" s="20" t="n"/>
-      <c r="L105" s="26" t="n"/>
-    </row>
+      <c r="A104" s="55" t="n"/>
+      <c r="B104" s="87" t="n"/>
+      <c r="C104" s="87" t="n"/>
+      <c r="D104" s="87" t="n"/>
+      <c r="E104" s="88" t="n"/>
+      <c r="F104" s="87" t="n"/>
+      <c r="G104" s="87" t="n"/>
+      <c r="H104" s="87" t="n"/>
+      <c r="I104" s="87" t="n"/>
+      <c r="J104" s="87" t="n"/>
+      <c r="K104" s="87" t="n"/>
+      <c r="L104" s="89" t="n"/>
+    </row>
+    <row r="105" ht="25.05" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E97:L97"/>
-    <mergeCell ref="E98:L98"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
+  <mergeCells count="26">
+    <mergeCell ref="M9:M10"/>
     <mergeCell ref="A6:L6"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="E104:L104"/>
@@ -3745,6 +3303,15 @@
     <mergeCell ref="A101:D101"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="E97:L97"/>
+    <mergeCell ref="E98:L98"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>57634</v>
+        <v>57751</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1435,53 +1435,49 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>1</v>
+        <v>15.85</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>29</v>
+        <v>1141</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="M11" s="10" t="inlineStr">
-        <is>
-          <t>20x60x5</t>
-        </is>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="M11" s="10" t="n"/>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A12" s="17" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>57635</v>
+        <v>57752</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1490,17 +1486,17 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Meandros Light</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
@@ -1510,44 +1506,73 @@
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>1</v>
+        <v>15.85</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>29</v>
+        <v>1141</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>40x120x2</t>
-        </is>
-      </c>
+        <v>1171</v>
+      </c>
+      <c r="M12" s="10" t="n"/>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="11" t="n"/>
-      <c r="I13" s="10" t="n"/>
-      <c r="J13" s="9" t="n"/>
-      <c r="K13" s="10" t="n"/>
-      <c r="L13" s="16">
-        <f>K13+30</f>
-        <v/>
+      <c r="B13" s="18" t="n">
+        <v>526258</v>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Rocks</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Ozel</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Rainbow</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16" t="n">
+        <v>30</v>
       </c>
       <c r="M13" s="10" t="n"/>
     </row>
@@ -1555,19 +1580,50 @@
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="16">
-        <f>K14+30</f>
-        <v/>
+      <c r="B14" s="18" t="n">
+        <v>526370</v>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Marble Copings</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Sandblasted&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>30</v>
       </c>
       <c r="M14" s="10" t="n"/>
     </row>

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>57751</v>
+        <v>526445</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1435,40 +1435,40 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>15.85</v>
+        <v>18</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1141</v>
+        <v>864</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1171</v>
+        <v>894</v>
       </c>
       <c r="M11" s="10" t="n"/>
     </row>
@@ -1477,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>57752</v>
+        <v>526446</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1486,40 +1486,40 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>15.85</v>
+        <v>18</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1141</v>
+        <v>864</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1171</v>
+        <v>894</v>
       </c>
       <c r="M12" s="10" t="n"/>
     </row>
@@ -1528,51 +1528,49 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>526258</v>
+        <v>526447</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Travertine Rocks</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Ozel</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Rainbow</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="J13" s="9" t="n">
+        <v>18</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>30</v>
+        <v>894</v>
       </c>
       <c r="M13" s="10" t="n"/>
     </row>
@@ -1581,21 +1579,21 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>526370</v>
+        <v>526448</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Marble Copings</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Bullnose</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
@@ -1605,25 +1603,25 @@
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>30</v>
+        <v>894</v>
       </c>
       <c r="M14" s="10" t="n"/>
     </row>
@@ -1631,19 +1629,50 @@
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="16">
-        <f>K15+30</f>
-        <v/>
+      <c r="B15" s="18" t="n">
+        <v>526449</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M15" s="10" t="n"/>
     </row>
@@ -1651,19 +1680,50 @@
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="16">
-        <f>K16+30</f>
-        <v/>
+      <c r="B16" s="18" t="n">
+        <v>526450</v>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M16" s="10" t="n"/>
     </row>
@@ -1671,19 +1731,50 @@
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="16">
-        <f>K17+30</f>
-        <v/>
+      <c r="B17" s="18" t="n">
+        <v>526451</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L17" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M17" s="10" t="n"/>
     </row>
@@ -1691,19 +1782,50 @@
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="10" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="10" t="n"/>
-      <c r="L18" s="16">
-        <f>K18+30</f>
-        <v/>
+      <c r="B18" s="18" t="n">
+        <v>526452</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M18" s="10" t="n"/>
     </row>
@@ -1711,19 +1833,50 @@
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="10" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="10" t="n"/>
-      <c r="L19" s="16">
-        <f>K19+30</f>
-        <v/>
+      <c r="B19" s="18" t="n">
+        <v>526453</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M19" s="10" t="n"/>
     </row>
@@ -1731,19 +1884,50 @@
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="10" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="10" t="n"/>
-      <c r="L20" s="16">
-        <f>K20+30</f>
-        <v/>
+      <c r="B20" s="18" t="n">
+        <v>526454</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M20" s="10" t="n"/>
     </row>
@@ -1751,19 +1935,50 @@
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="10" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="16">
-        <f>K21+30</f>
-        <v/>
+      <c r="B21" s="18" t="n">
+        <v>526455</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L21" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M21" s="10" t="n"/>
     </row>
@@ -1771,19 +1986,50 @@
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="16">
-        <f>K22+30</f>
-        <v/>
+      <c r="B22" s="18" t="n">
+        <v>526456</v>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M22" s="10" t="n"/>
     </row>
@@ -1791,19 +2037,50 @@
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="10" t="n"/>
-      <c r="L23" s="16">
-        <f>K23+30</f>
-        <v/>
+      <c r="B23" s="18" t="n">
+        <v>526457</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L23" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M23" s="10" t="n"/>
     </row>
@@ -1811,19 +2088,50 @@
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="16">
-        <f>K24+30</f>
-        <v/>
+      <c r="B24" s="18" t="n">
+        <v>526458</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L24" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M24" s="10" t="n"/>
     </row>
@@ -1831,19 +2139,50 @@
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="10" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="10" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="10" t="n"/>
-      <c r="L25" s="16">
-        <f>K25+30</f>
-        <v/>
+      <c r="B25" s="18" t="n">
+        <v>526459</v>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Anatolia Beige</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>864</v>
+      </c>
+      <c r="L25" s="16" t="n">
+        <v>894</v>
       </c>
       <c r="M25" s="10" t="n"/>
     </row>
@@ -1851,19 +2190,50 @@
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="10" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="10" t="n"/>
-      <c r="L26" s="16">
-        <f>K26+30</f>
-        <v/>
+      <c r="B26" s="18" t="n">
+        <v>57494</v>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L26" s="16" t="n">
+        <v>1093</v>
       </c>
       <c r="M26" s="10" t="n"/>
     </row>
@@ -1871,19 +2241,50 @@
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="10" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="10" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="10" t="n"/>
-      <c r="L27" s="16">
-        <f>K27+30</f>
-        <v/>
+      <c r="B27" s="18" t="n">
+        <v>57496</v>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L27" s="16" t="n">
+        <v>1093</v>
       </c>
       <c r="M27" s="10" t="n"/>
     </row>
@@ -1891,19 +2292,50 @@
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n"/>
-      <c r="C28" s="10" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
-      <c r="I28" s="10" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="10" t="n"/>
-      <c r="L28" s="16">
-        <f>K28+30</f>
-        <v/>
+      <c r="B28" s="18" t="n">
+        <v>57517</v>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G28" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L28" s="16" t="n">
+        <v>1093</v>
       </c>
       <c r="M28" s="10" t="n"/>
     </row>
@@ -1911,19 +2343,50 @@
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="n"/>
-      <c r="I29" s="10" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="10" t="n"/>
-      <c r="L29" s="16">
-        <f>K29+30</f>
-        <v/>
+      <c r="B29" s="18" t="n">
+        <v>57518</v>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G29" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L29" s="16" t="n">
+        <v>1093</v>
       </c>
       <c r="M29" s="10" t="n"/>
     </row>
@@ -1931,19 +2394,50 @@
       <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
-      <c r="B30" s="18" t="n"/>
-      <c r="C30" s="10" t="n"/>
-      <c r="D30" s="14" t="n"/>
-      <c r="E30" s="10" t="n"/>
-      <c r="F30" s="13" t="n"/>
-      <c r="G30" s="11" t="n"/>
-      <c r="H30" s="11" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="10" t="n"/>
-      <c r="L30" s="16">
-        <f>K30+30</f>
-        <v/>
+      <c r="B30" s="18" t="n">
+        <v>57520</v>
+      </c>
+      <c r="C30" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D30" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F30" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G30" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H30" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I30" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="J30" s="9" t="n">
+        <v>22.14</v>
+      </c>
+      <c r="K30" s="10" t="n">
+        <v>1063</v>
+      </c>
+      <c r="L30" s="16" t="n">
+        <v>1093</v>
       </c>
       <c r="M30" s="10" t="n"/>
     </row>
@@ -1951,19 +2445,50 @@
       <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="B31" s="18" t="n"/>
-      <c r="C31" s="10" t="n"/>
-      <c r="D31" s="14" t="n"/>
-      <c r="E31" s="10" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="11" t="n"/>
-      <c r="H31" s="11" t="n"/>
-      <c r="I31" s="10" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="10" t="n"/>
-      <c r="L31" s="16">
-        <f>K31+30</f>
-        <v/>
+      <c r="B31" s="18" t="n">
+        <v>526342</v>
+      </c>
+      <c r="C31" s="10" t="inlineStr">
+        <is>
+          <t>Glass Mosaic</t>
+        </is>
+      </c>
+      <c r="D31" s="14" t="inlineStr">
+        <is>
+          <t>Shiny</t>
+        </is>
+      </c>
+      <c r="E31" s="10" t="inlineStr">
+        <is>
+          <t>FBZM10</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="G31" s="11" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="H31" s="11" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>160.84</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16" t="n">
+        <v>30</v>
       </c>
       <c r="M31" s="10" t="n"/>
     </row>
@@ -1971,19 +2496,50 @@
       <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
-      <c r="B32" s="18" t="n"/>
-      <c r="C32" s="10" t="n"/>
-      <c r="D32" s="14" t="n"/>
-      <c r="E32" s="10" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="11" t="n"/>
-      <c r="H32" s="11" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="10" t="n"/>
-      <c r="L32" s="16">
-        <f>K32+30</f>
-        <v/>
+      <c r="B32" s="18" t="n">
+        <v>526387</v>
+      </c>
+      <c r="C32" s="10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="D32" s="14" t="inlineStr">
+        <is>
+          <t>Bushhammered&amp;Brushed&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>Toros Black</t>
+        </is>
+      </c>
+      <c r="F32" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G32" s="11" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="H32" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="n">
+        <v>94</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="K32" s="10" t="n">
+        <v>1263</v>
+      </c>
+      <c r="L32" s="16" t="n">
+        <v>1293</v>
       </c>
       <c r="M32" s="10" t="n"/>
     </row>
@@ -1991,19 +2547,50 @@
       <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="B33" s="18" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="14" t="n"/>
-      <c r="E33" s="10" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="11" t="n"/>
-      <c r="H33" s="11" t="n"/>
-      <c r="I33" s="10" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="10" t="n"/>
-      <c r="L33" s="16">
-        <f>K33+30</f>
-        <v/>
+      <c r="B33" s="18" t="n">
+        <v>57870</v>
+      </c>
+      <c r="C33" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Skirting</t>
+        </is>
+      </c>
+      <c r="D33" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished&amp;Beveled</t>
+        </is>
+      </c>
+      <c r="E33" s="10" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="F33" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G33" s="11" t="inlineStr">
+        <is>
+          <t>17,5</t>
+        </is>
+      </c>
+      <c r="H33" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I33" s="10" t="n">
+        <v>210</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="K33" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16" t="n">
+        <v>30</v>
       </c>
       <c r="M33" s="10" t="n"/>
     </row>

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>526445</v>
+        <v>526564</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1435,49 +1435,49 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M11" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M11" s="10" t="inlineStr"/>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A12" s="17" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>526446</v>
+        <v>526565</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1486,49 +1486,49 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M12" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M12" s="10" t="inlineStr"/>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>526447</v>
+        <v>526658</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1537,49 +1537,49 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M13" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M13" s="10" t="inlineStr"/>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>526448</v>
+        <v>526659</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1588,49 +1588,49 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M14" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M14" s="10" t="inlineStr"/>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>526449</v>
+        <v>526660</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
@@ -1639,49 +1639,49 @@
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M15" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M15" s="10" t="inlineStr"/>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>526450</v>
+        <v>526661</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
@@ -1690,49 +1690,49 @@
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M16" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M16" s="10" t="inlineStr"/>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>526451</v>
+        <v>526662</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
@@ -1741,49 +1741,49 @@
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M17" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M17" s="10" t="inlineStr"/>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>526452</v>
+        <v>526663</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
@@ -1792,49 +1792,49 @@
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M18" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M18" s="10" t="inlineStr"/>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>526453</v>
+        <v>526664</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
@@ -1843,49 +1843,49 @@
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M19" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M19" s="10" t="inlineStr"/>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>526454</v>
+        <v>526665</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
@@ -1894,49 +1894,49 @@
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M20" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M20" s="10" t="inlineStr"/>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>526455</v>
+        <v>526666</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
@@ -1945,49 +1945,49 @@
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M21" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M21" s="10" t="inlineStr"/>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>526456</v>
+        <v>526667</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
@@ -1996,823 +1996,1164 @@
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>18</v>
+        <v>39.63</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>864</v>
+        <v>1141</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M22" s="10" t="n"/>
+        <v>1171</v>
+      </c>
+      <c r="M22" s="10" t="inlineStr"/>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>526457</v>
+        <v>58039</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F23" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>18</v>
+        <v>24.3</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M23" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M23" s="10" t="inlineStr"/>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>526458</v>
+        <v>58040</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>18</v>
+        <v>24.3</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M24" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M24" s="10" t="inlineStr"/>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>526459</v>
+        <v>58048</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F25" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>50</v>
+        <v>270</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>18</v>
+        <v>24.3</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>894</v>
-      </c>
-      <c r="M25" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M25" s="10" t="inlineStr"/>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>57494</v>
+        <v>58049</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>22.14</v>
+        <v>24.3</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>1063</v>
+        <v>875</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="M26" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M26" s="10" t="inlineStr"/>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>57496</v>
+        <v>58063</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>22.14</v>
+        <v>24.3</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>1063</v>
+        <v>875</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="M27" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M27" s="10" t="inlineStr"/>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>57517</v>
+        <v>58068</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F28" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I28" s="10" t="n">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>22.14</v>
+        <v>24.3</v>
       </c>
       <c r="K28" s="10" t="n">
-        <v>1063</v>
+        <v>875</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="M28" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M28" s="10" t="inlineStr"/>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
       <c r="B29" s="18" t="n">
-        <v>57518</v>
+        <v>58097</v>
       </c>
       <c r="C29" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D29" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E29" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F29" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G29" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I29" s="10" t="n">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="J29" s="9" t="n">
-        <v>22.14</v>
+        <v>24.3</v>
       </c>
       <c r="K29" s="10" t="n">
-        <v>1063</v>
+        <v>875</v>
       </c>
       <c r="L29" s="16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="M29" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M29" s="10" t="inlineStr"/>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A30" s="17" t="n">
         <v>20</v>
       </c>
       <c r="B30" s="18" t="n">
-        <v>57520</v>
+        <v>58098</v>
       </c>
       <c r="C30" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D30" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F30" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G30" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I30" s="10" t="n">
-        <v>123</v>
+        <v>324</v>
       </c>
       <c r="J30" s="9" t="n">
-        <v>22.14</v>
+        <v>24.3</v>
       </c>
       <c r="K30" s="10" t="n">
-        <v>1063</v>
+        <v>875</v>
       </c>
       <c r="L30" s="16" t="n">
-        <v>1093</v>
-      </c>
-      <c r="M30" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M30" s="10" t="inlineStr"/>
     </row>
     <row r="31" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A31" s="17" t="n">
         <v>21</v>
       </c>
       <c r="B31" s="18" t="n">
-        <v>526342</v>
+        <v>58111</v>
       </c>
       <c r="C31" s="10" t="inlineStr">
         <is>
-          <t>Glass Mosaic</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D31" s="14" t="inlineStr">
         <is>
-          <t>Shiny</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t>FBZM10</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F31" s="13" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G31" s="11" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I31" s="10" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="J31" s="9" t="n">
-        <v>160.84</v>
+        <v>24.3</v>
       </c>
       <c r="K31" s="10" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="L31" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="M31" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M31" s="10" t="inlineStr"/>
     </row>
     <row r="32" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A32" s="17" t="n">
         <v>22</v>
       </c>
       <c r="B32" s="18" t="n">
-        <v>526387</v>
+        <v>58112</v>
       </c>
       <c r="C32" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D32" s="14" t="inlineStr">
         <is>
-          <t>Bushhammered&amp;Brushed&amp;Bullnose</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E32" s="10" t="inlineStr">
         <is>
-          <t>Toros Black</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F32" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G32" s="11" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I32" s="10" t="n">
-        <v>94</v>
+        <v>270</v>
       </c>
       <c r="J32" s="9" t="n">
-        <v>22.56</v>
+        <v>24.3</v>
       </c>
       <c r="K32" s="10" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
       <c r="L32" s="16" t="n">
-        <v>1293</v>
-      </c>
-      <c r="M32" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M32" s="10" t="inlineStr"/>
     </row>
     <row r="33" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A33" s="17" t="n">
         <v>23</v>
       </c>
       <c r="B33" s="18" t="n">
-        <v>57870</v>
+        <v>58127</v>
       </c>
       <c r="C33" s="10" t="inlineStr">
         <is>
-          <t>Travertine Skirting</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D33" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished&amp;Beveled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E33" s="10" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F33" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G33" s="11" t="inlineStr">
         <is>
-          <t>17,5</t>
+          <t>5,0</t>
         </is>
       </c>
       <c r="H33" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="I33" s="10" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="J33" s="9" t="n">
-        <v>22.05</v>
+        <v>24.3</v>
       </c>
       <c r="K33" s="10" t="n">
-        <v>0</v>
+        <v>875</v>
       </c>
       <c r="L33" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="M33" s="10" t="n"/>
+        <v>905</v>
+      </c>
+      <c r="M33" s="10" t="inlineStr"/>
     </row>
     <row r="34" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A34" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="B34" s="18" t="n"/>
-      <c r="C34" s="10" t="n"/>
-      <c r="D34" s="14" t="n"/>
-      <c r="E34" s="10" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="11" t="n"/>
-      <c r="H34" s="11" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="10" t="n"/>
-      <c r="L34" s="16">
-        <f>K34+30</f>
-        <v/>
-      </c>
-      <c r="M34" s="10" t="n"/>
+      <c r="B34" s="18" t="n">
+        <v>58129</v>
+      </c>
+      <c r="C34" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D34" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E34" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F34" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G34" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H34" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I34" s="10" t="n">
+        <v>270</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K34" s="10" t="n">
+        <v>875</v>
+      </c>
+      <c r="L34" s="16" t="n">
+        <v>905</v>
+      </c>
+      <c r="M34" s="10" t="inlineStr"/>
     </row>
     <row r="35" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A35" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="B35" s="18" t="n"/>
-      <c r="C35" s="10" t="n"/>
-      <c r="D35" s="14" t="n"/>
-      <c r="E35" s="10" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="11" t="n"/>
-      <c r="H35" s="11" t="n"/>
-      <c r="I35" s="10" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="10" t="n"/>
-      <c r="L35" s="16">
-        <f>K35+30</f>
-        <v/>
-      </c>
-      <c r="M35" s="10" t="n"/>
+      <c r="B35" s="18" t="n">
+        <v>57983</v>
+      </c>
+      <c r="C35" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E35" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G35" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H35" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I35" s="10" t="n">
+        <v>270</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="K35" s="10" t="n">
+        <v>875</v>
+      </c>
+      <c r="L35" s="16" t="n">
+        <v>905</v>
+      </c>
+      <c r="M35" s="10" t="inlineStr"/>
     </row>
     <row r="36" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A36" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="B36" s="18" t="n"/>
-      <c r="C36" s="10" t="n"/>
-      <c r="D36" s="14" t="n"/>
-      <c r="E36" s="10" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="11" t="n"/>
-      <c r="H36" s="11" t="n"/>
-      <c r="I36" s="10" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="10" t="n"/>
-      <c r="L36" s="16">
-        <f>K36+30</f>
-        <v/>
-      </c>
-      <c r="M36" s="10" t="n"/>
+      <c r="B36" s="18" t="n">
+        <v>58067</v>
+      </c>
+      <c r="C36" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Skirting</t>
+        </is>
+      </c>
+      <c r="D36" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="E36" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G36" s="11" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="H36" s="11" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="I36" s="10" t="n">
+        <v>840</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>512.4</v>
+      </c>
+      <c r="K36" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M36" s="10" t="inlineStr"/>
     </row>
     <row r="37" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A37" s="17" t="n">
         <v>27</v>
       </c>
-      <c r="B37" s="18" t="n"/>
-      <c r="C37" s="10" t="n"/>
-      <c r="D37" s="14" t="n"/>
-      <c r="E37" s="10" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="11" t="n"/>
-      <c r="H37" s="11" t="n"/>
-      <c r="I37" s="10" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="10" t="n"/>
-      <c r="L37" s="16">
-        <f>K37+30</f>
-        <v/>
-      </c>
-      <c r="M37" s="10" t="n"/>
+      <c r="B37" s="18" t="n">
+        <v>57985</v>
+      </c>
+      <c r="C37" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D37" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E37" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G37" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H37" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I37" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K37" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M37" s="10" t="inlineStr"/>
     </row>
     <row r="38" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A38" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="10" t="n"/>
-      <c r="D38" s="14" t="n"/>
-      <c r="E38" s="10" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="11" t="n"/>
-      <c r="H38" s="11" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="10" t="n"/>
-      <c r="L38" s="16">
-        <f>K38+30</f>
-        <v/>
-      </c>
-      <c r="M38" s="10" t="n"/>
+      <c r="B38" s="18" t="n">
+        <v>57989</v>
+      </c>
+      <c r="C38" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D38" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E38" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G38" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H38" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I38" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K38" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M38" s="10" t="inlineStr"/>
     </row>
     <row r="39" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A39" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="B39" s="18" t="n"/>
-      <c r="C39" s="10" t="n"/>
-      <c r="D39" s="14" t="n"/>
-      <c r="E39" s="10" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="11" t="n"/>
-      <c r="H39" s="11" t="n"/>
-      <c r="I39" s="10" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="10" t="n"/>
-      <c r="L39" s="16">
-        <f>K39+30</f>
-        <v/>
-      </c>
-      <c r="M39" s="10" t="n"/>
+      <c r="B39" s="18" t="n">
+        <v>58007</v>
+      </c>
+      <c r="C39" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D39" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E39" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G39" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H39" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I39" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K39" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M39" s="10" t="inlineStr"/>
     </row>
     <row r="40" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A40" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="B40" s="18" t="n"/>
-      <c r="C40" s="10" t="n"/>
-      <c r="D40" s="14" t="n"/>
-      <c r="E40" s="10" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="11" t="n"/>
-      <c r="H40" s="11" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="10" t="n"/>
-      <c r="L40" s="16">
-        <f>K40+30</f>
-        <v/>
-      </c>
-      <c r="M40" s="10" t="n"/>
+      <c r="B40" s="18" t="n">
+        <v>58023</v>
+      </c>
+      <c r="C40" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D40" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E40" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G40" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H40" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I40" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K40" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M40" s="10" t="inlineStr"/>
     </row>
     <row r="41" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A41" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="B41" s="18" t="n"/>
-      <c r="C41" s="10" t="n"/>
-      <c r="D41" s="14" t="n"/>
-      <c r="E41" s="10" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="11" t="n"/>
-      <c r="H41" s="11" t="n"/>
-      <c r="I41" s="10" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="10" t="n"/>
-      <c r="L41" s="16">
-        <f>K41+30</f>
-        <v/>
-      </c>
-      <c r="M41" s="10" t="n"/>
+      <c r="B41" s="18" t="n">
+        <v>58024</v>
+      </c>
+      <c r="C41" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D41" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E41" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G41" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H41" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I41" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K41" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M41" s="10" t="inlineStr"/>
     </row>
     <row r="42" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A42" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="B42" s="18" t="n"/>
-      <c r="C42" s="10" t="n"/>
-      <c r="D42" s="14" t="n"/>
-      <c r="E42" s="10" t="n"/>
-      <c r="F42" s="13" t="n"/>
-      <c r="G42" s="11" t="n"/>
-      <c r="H42" s="11" t="n"/>
-      <c r="I42" s="10" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="10" t="n"/>
-      <c r="L42" s="16">
-        <f>K42+30</f>
-        <v/>
-      </c>
-      <c r="M42" s="10" t="n"/>
+      <c r="B42" s="18" t="n">
+        <v>58026</v>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D42" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E42" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F42" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G42" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H42" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I42" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J42" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K42" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M42" s="10" t="inlineStr"/>
     </row>
     <row r="43" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A43" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="B43" s="18" t="n"/>
-      <c r="C43" s="10" t="n"/>
-      <c r="D43" s="14" t="n"/>
-      <c r="E43" s="10" t="n"/>
-      <c r="F43" s="13" t="n"/>
-      <c r="G43" s="11" t="n"/>
-      <c r="H43" s="11" t="n"/>
-      <c r="I43" s="10" t="n"/>
-      <c r="J43" s="9" t="n"/>
-      <c r="K43" s="10" t="n"/>
-      <c r="L43" s="16">
-        <f>K43+30</f>
-        <v/>
-      </c>
-      <c r="M43" s="10" t="n"/>
+      <c r="B43" s="18" t="n">
+        <v>58027</v>
+      </c>
+      <c r="C43" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D43" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G43" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H43" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I43" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J43" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K43" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M43" s="10" t="inlineStr"/>
     </row>
     <row r="44" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A44" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="B44" s="18" t="n"/>
-      <c r="C44" s="10" t="n"/>
-      <c r="D44" s="14" t="n"/>
-      <c r="E44" s="10" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="11" t="n"/>
-      <c r="H44" s="11" t="n"/>
-      <c r="I44" s="10" t="n"/>
-      <c r="J44" s="9" t="n"/>
-      <c r="K44" s="10" t="n"/>
-      <c r="L44" s="16">
-        <f>K44+30</f>
-        <v/>
-      </c>
-      <c r="M44" s="10" t="n"/>
+      <c r="B44" s="18" t="n">
+        <v>58028</v>
+      </c>
+      <c r="C44" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Mosaic</t>
+        </is>
+      </c>
+      <c r="D44" s="14" t="inlineStr">
+        <is>
+          <t>Split face&amp;Corner</t>
+        </is>
+      </c>
+      <c r="E44" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F44" s="13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="G44" s="11" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="H44" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="I44" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>13.95</v>
+      </c>
+      <c r="K44" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="M44" s="10" t="inlineStr"/>
     </row>
     <row r="45" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A45" s="17" t="n">
